--- a/templates/ERC000043/metadata_template_ERC000043.xlsx
+++ b/templates/ERC000043/metadata_template_ERC000043.xlsx
@@ -19,11 +19,11 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$H$1:$H$287</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="592">
   <si>
     <t>alias</t>
   </si>
@@ -450,6 +450,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -549,6 +561,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -666,6 +696,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -673,6 +706,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2315,10 +2351,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2359,10 +2395,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2389,7 +2425,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2409,7 +2445,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2426,7 +2462,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2443,7 +2479,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2460,7 +2496,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2477,7 +2513,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2494,7 +2530,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2511,7 +2547,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2528,7 +2564,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2545,7 +2581,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2559,7 +2595,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2573,7 +2609,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2587,7 +2623,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2601,7 +2637,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2611,8 +2647,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2622,8 +2661,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2633,8 +2675,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2644,8 +2689,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2656,7 +2704,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -2667,7 +2715,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -2678,7 +2726,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -2689,7 +2737,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -2700,7 +2748,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -2711,7 +2759,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -2722,7 +2770,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -2733,7 +2781,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -2744,7 +2792,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -2755,7 +2803,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -2766,7 +2814,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -2777,7 +2825,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -2788,7 +2836,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -2799,7 +2847,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -2807,7 +2855,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -2815,7 +2863,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -2823,7 +2871,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -2831,7 +2879,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -2839,7 +2887,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -2847,7 +2895,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -2855,7 +2903,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -2863,7 +2911,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -2871,7 +2919,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -2879,176 +2927,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3073,27 +3161,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3116,122 +3204,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3258,144 +3346,144 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -3418,1437 +3506,1437 @@
   <sheetData>
     <row r="1" spans="8:8">
       <c r="H1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="8:8">
       <c r="H2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="8:8">
       <c r="H3" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="8:8">
       <c r="H4" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="8:8">
       <c r="H5" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="8:8">
       <c r="H6" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="8:8">
       <c r="H7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="8:8">
       <c r="H8" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="8:8">
       <c r="H9" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="8:8">
       <c r="H10" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="8:8">
       <c r="H11" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="8:8">
       <c r="H12" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="8:8">
       <c r="H13" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="8:8">
       <c r="H14" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="8:8">
       <c r="H15" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="8:8">
       <c r="H16" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="8:8">
       <c r="H17" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="8:8">
       <c r="H18" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="8:8">
       <c r="H19" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="8:8">
       <c r="H20" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="8:8">
       <c r="H21" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="8:8">
       <c r="H22" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="8:8">
       <c r="H24" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="8:8">
       <c r="H26" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="8:8">
       <c r="H27" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="8:8">
       <c r="H36" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="8:8">
       <c r="H37" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="8:8">
       <c r="H38" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="8:8">
       <c r="H39" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="8:8">
       <c r="H40" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="8:8">
       <c r="H42" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="8:8">
       <c r="H43" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="8:8">
       <c r="H44" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="8:8">
       <c r="H45" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="8:8">
       <c r="H46" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="8:8">
       <c r="H47" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="8:8">
       <c r="H48" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="8:8">
       <c r="H50" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="8:8">
       <c r="H51" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="8:8">
       <c r="H52" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="8:8">
       <c r="H53" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="8:8">
       <c r="H54" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="8:8">
       <c r="H55" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="8:8">
       <c r="H56" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="8:8">
       <c r="H57" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="8:8">
       <c r="H58" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="8:8">
       <c r="H59" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60" spans="8:8">
       <c r="H60" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="8:8">
       <c r="H61" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="8:8">
       <c r="H62" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="8:8">
       <c r="H63" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="8:8">
       <c r="H64" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="65" spans="8:8">
       <c r="H65" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="66" spans="8:8">
       <c r="H66" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="8:8">
       <c r="H67" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="68" spans="8:8">
       <c r="H68" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" spans="8:8">
       <c r="H69" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="70" spans="8:8">
       <c r="H70" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71" spans="8:8">
       <c r="H71" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="72" spans="8:8">
       <c r="H72" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73" spans="8:8">
       <c r="H73" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="74" spans="8:8">
       <c r="H74" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" spans="8:8">
       <c r="H75" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="8:8">
       <c r="H76" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="77" spans="8:8">
       <c r="H77" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="8:8">
       <c r="H78" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="8:8">
       <c r="H79" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="80" spans="8:8">
       <c r="H80" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="8:8">
       <c r="H81" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82" spans="8:8">
       <c r="H82" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="8:8">
       <c r="H83" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="8:8">
       <c r="H84" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="85" spans="8:8">
       <c r="H85" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="86" spans="8:8">
       <c r="H86" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="87" spans="8:8">
       <c r="H87" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="88" spans="8:8">
       <c r="H88" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="89" spans="8:8">
       <c r="H89" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="8:8">
       <c r="H90" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="91" spans="8:8">
       <c r="H91" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="92" spans="8:8">
       <c r="H92" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="93" spans="8:8">
       <c r="H93" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="94" spans="8:8">
       <c r="H94" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="95" spans="8:8">
       <c r="H95" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="96" spans="8:8">
       <c r="H96" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97" spans="8:8">
       <c r="H97" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="98" spans="8:8">
       <c r="H98" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="99" spans="8:8">
       <c r="H99" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="100" spans="8:8">
       <c r="H100" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="101" spans="8:8">
       <c r="H101" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="102" spans="8:8">
       <c r="H102" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="103" spans="8:8">
       <c r="H103" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="104" spans="8:8">
       <c r="H104" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="105" spans="8:8">
       <c r="H105" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="106" spans="8:8">
       <c r="H106" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="107" spans="8:8">
       <c r="H107" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="8:8">
       <c r="H108" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="109" spans="8:8">
       <c r="H109" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="110" spans="8:8">
       <c r="H110" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="111" spans="8:8">
       <c r="H111" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="112" spans="8:8">
       <c r="H112" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="113" spans="8:8">
       <c r="H113" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="114" spans="8:8">
       <c r="H114" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="115" spans="8:8">
       <c r="H115" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="116" spans="8:8">
       <c r="H116" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="117" spans="8:8">
       <c r="H117" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="118" spans="8:8">
       <c r="H118" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="119" spans="8:8">
       <c r="H119" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="120" spans="8:8">
       <c r="H120" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="121" spans="8:8">
       <c r="H121" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="122" spans="8:8">
       <c r="H122" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="123" spans="8:8">
       <c r="H123" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="124" spans="8:8">
       <c r="H124" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="125" spans="8:8">
       <c r="H125" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="126" spans="8:8">
       <c r="H126" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="127" spans="8:8">
       <c r="H127" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="128" spans="8:8">
       <c r="H128" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="129" spans="8:8">
       <c r="H129" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130" spans="8:8">
       <c r="H130" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="131" spans="8:8">
       <c r="H131" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="132" spans="8:8">
       <c r="H132" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="133" spans="8:8">
       <c r="H133" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="134" spans="8:8">
       <c r="H134" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="135" spans="8:8">
       <c r="H135" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="136" spans="8:8">
       <c r="H136" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="137" spans="8:8">
       <c r="H137" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="138" spans="8:8">
       <c r="H138" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="139" spans="8:8">
       <c r="H139" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="140" spans="8:8">
       <c r="H140" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="141" spans="8:8">
       <c r="H141" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="142" spans="8:8">
       <c r="H142" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="143" spans="8:8">
       <c r="H143" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="144" spans="8:8">
       <c r="H144" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="145" spans="8:8">
       <c r="H145" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="146" spans="8:8">
       <c r="H146" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="147" spans="8:8">
       <c r="H147" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="148" spans="8:8">
       <c r="H148" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="149" spans="8:8">
       <c r="H149" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="150" spans="8:8">
       <c r="H150" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="151" spans="8:8">
       <c r="H151" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="152" spans="8:8">
       <c r="H152" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="153" spans="8:8">
       <c r="H153" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="154" spans="8:8">
       <c r="H154" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="155" spans="8:8">
       <c r="H155" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="156" spans="8:8">
       <c r="H156" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="157" spans="8:8">
       <c r="H157" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="158" spans="8:8">
       <c r="H158" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="159" spans="8:8">
       <c r="H159" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="160" spans="8:8">
       <c r="H160" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="161" spans="8:8">
       <c r="H161" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="162" spans="8:8">
       <c r="H162" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="163" spans="8:8">
       <c r="H163" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="164" spans="8:8">
       <c r="H164" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="165" spans="8:8">
       <c r="H165" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="166" spans="8:8">
       <c r="H166" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="167" spans="8:8">
       <c r="H167" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="168" spans="8:8">
       <c r="H168" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="169" spans="8:8">
       <c r="H169" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="170" spans="8:8">
       <c r="H170" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="171" spans="8:8">
       <c r="H171" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="172" spans="8:8">
       <c r="H172" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="173" spans="8:8">
       <c r="H173" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="174" spans="8:8">
       <c r="H174" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="175" spans="8:8">
       <c r="H175" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="176" spans="8:8">
       <c r="H176" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="177" spans="8:8">
       <c r="H177" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="178" spans="8:8">
       <c r="H178" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="179" spans="8:8">
       <c r="H179" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="180" spans="8:8">
       <c r="H180" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="181" spans="8:8">
       <c r="H181" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="182" spans="8:8">
       <c r="H182" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="183" spans="8:8">
       <c r="H183" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="184" spans="8:8">
       <c r="H184" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="185" spans="8:8">
       <c r="H185" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="186" spans="8:8">
       <c r="H186" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="187" spans="8:8">
       <c r="H187" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="188" spans="8:8">
       <c r="H188" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="189" spans="8:8">
       <c r="H189" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="190" spans="8:8">
       <c r="H190" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="191" spans="8:8">
       <c r="H191" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="192" spans="8:8">
       <c r="H192" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="193" spans="8:8">
       <c r="H193" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="194" spans="8:8">
       <c r="H194" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="195" spans="8:8">
       <c r="H195" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="196" spans="8:8">
       <c r="H196" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="197" spans="8:8">
       <c r="H197" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="198" spans="8:8">
       <c r="H198" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="199" spans="8:8">
       <c r="H199" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="200" spans="8:8">
       <c r="H200" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="201" spans="8:8">
       <c r="H201" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="202" spans="8:8">
       <c r="H202" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="203" spans="8:8">
       <c r="H203" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="204" spans="8:8">
       <c r="H204" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="205" spans="8:8">
       <c r="H205" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="206" spans="8:8">
       <c r="H206" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="207" spans="8:8">
       <c r="H207" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="208" spans="8:8">
       <c r="H208" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="209" spans="8:8">
       <c r="H209" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="210" spans="8:8">
       <c r="H210" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="211" spans="8:8">
       <c r="H211" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="212" spans="8:8">
       <c r="H212" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="213" spans="8:8">
       <c r="H213" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="214" spans="8:8">
       <c r="H214" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="215" spans="8:8">
       <c r="H215" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="216" spans="8:8">
       <c r="H216" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="217" spans="8:8">
       <c r="H217" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="218" spans="8:8">
       <c r="H218" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="219" spans="8:8">
       <c r="H219" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="220" spans="8:8">
       <c r="H220" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="221" spans="8:8">
       <c r="H221" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="222" spans="8:8">
       <c r="H222" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="223" spans="8:8">
       <c r="H223" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="224" spans="8:8">
       <c r="H224" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="225" spans="8:8">
       <c r="H225" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="226" spans="8:8">
       <c r="H226" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="227" spans="8:8">
       <c r="H227" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="228" spans="8:8">
       <c r="H228" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="229" spans="8:8">
       <c r="H229" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="230" spans="8:8">
       <c r="H230" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="231" spans="8:8">
       <c r="H231" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="232" spans="8:8">
       <c r="H232" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="233" spans="8:8">
       <c r="H233" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="234" spans="8:8">
       <c r="H234" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="235" spans="8:8">
       <c r="H235" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="236" spans="8:8">
       <c r="H236" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="237" spans="8:8">
       <c r="H237" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="238" spans="8:8">
       <c r="H238" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="239" spans="8:8">
       <c r="H239" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="240" spans="8:8">
       <c r="H240" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="241" spans="8:8">
       <c r="H241" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="242" spans="8:8">
       <c r="H242" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="243" spans="8:8">
       <c r="H243" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="244" spans="8:8">
       <c r="H244" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="245" spans="8:8">
       <c r="H245" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="246" spans="8:8">
       <c r="H246" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="247" spans="8:8">
       <c r="H247" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="248" spans="8:8">
       <c r="H248" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="249" spans="8:8">
       <c r="H249" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="250" spans="8:8">
       <c r="H250" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="251" spans="8:8">
       <c r="H251" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="252" spans="8:8">
       <c r="H252" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="253" spans="8:8">
       <c r="H253" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="254" spans="8:8">
       <c r="H254" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="255" spans="8:8">
       <c r="H255" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="256" spans="8:8">
       <c r="H256" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="257" spans="8:8">
       <c r="H257" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="258" spans="8:8">
       <c r="H258" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="259" spans="8:8">
       <c r="H259" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="260" spans="8:8">
       <c r="H260" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="261" spans="8:8">
       <c r="H261" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="262" spans="8:8">
       <c r="H262" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="263" spans="8:8">
       <c r="H263" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="264" spans="8:8">
       <c r="H264" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="265" spans="8:8">
       <c r="H265" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="266" spans="8:8">
       <c r="H266" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="267" spans="8:8">
       <c r="H267" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="268" spans="8:8">
       <c r="H268" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="269" spans="8:8">
       <c r="H269" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="270" spans="8:8">
       <c r="H270" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="271" spans="8:8">
       <c r="H271" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="272" spans="8:8">
       <c r="H272" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="273" spans="8:8">
       <c r="H273" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="274" spans="8:8">
       <c r="H274" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="275" spans="8:8">
       <c r="H275" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="276" spans="8:8">
       <c r="H276" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="277" spans="8:8">
       <c r="H277" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="278" spans="8:8">
       <c r="H278" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="279" spans="8:8">
       <c r="H279" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="280" spans="8:8">
       <c r="H280" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="281" spans="8:8">
       <c r="H281" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="282" spans="8:8">
       <c r="H282" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="283" spans="8:8">
       <c r="H283" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="284" spans="8:8">
       <c r="H284" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="285" spans="8:8">
       <c r="H285" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="286" spans="8:8">
       <c r="H286" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="287" spans="8:8">
       <c r="H287" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000043/metadata_template_ERC000043.xlsx
+++ b/templates/ERC000043/metadata_template_ERC000043.xlsx
@@ -831,8 +831,7 @@
     <t>Depth</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) The distance below the surface of the water at which a measurement was made or a sample was collected. format: ####.##, positive below the sea surface. sdn:p06:46:ulaa for m. example: 14.71 Units: 
-                    </t>
+    <t>(Recommended) The distance below the surface of the water at which a measurement was made or a sample was collected. format: ####.##, positive below the sea surface. sdn:p06:46:ulaa for m. example: 14.71 (Units: m)</t>
   </si>
   <si>
     <t>collected_by</t>
@@ -1717,15 +1716,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>sample collection device or method</t>
@@ -1743,22 +1740,19 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. Units: 
-                    </t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>sample storage duration</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Duration for which sample was stored Units: 
-                    </t>
+    <t>(Optional) Duration for which sample was stored (Units: years)</t>
   </si>
   <si>
     <t>sample storage temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Temperature at which sample was stored, e.g. -80 Units: 
-                    </t>
+    <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
     <t>growth condition</t>
@@ -1770,15 +1764,13 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. Units: 
-                    </t>
+    <t>(Optional) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. (Units: ºC)</t>
   </si>
   <si>
     <t>Salinity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. Units: 
-                    </t>
+    <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
     <t>sample storage conditions</t>
@@ -1790,8 +1782,7 @@
     <t>light intensity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of light intensity Units: 
-                    </t>
+    <t>(Optional) Measurement of light intensity (Units: lux)</t>
   </si>
   <si>
     <t>pH</t>

--- a/templates/ERC000043/metadata_template_ERC000043.xlsx
+++ b/templates/ERC000043/metadata_template_ERC000043.xlsx
@@ -99,7 +99,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000043/metadata_template_ERC000043.xlsx
+++ b/templates/ERC000043/metadata_template_ERC000043.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$H$1:$H$287</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$J$1:$J$288</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="593">
   <si>
     <t>alias</t>
   </si>
@@ -828,10 +828,22 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>(Recommended) The distance below the surface of the water at which a measurement was made or a sample was collected. format: ####.##, positive below the sea surface. sdn:p06:46:ulaa for m. example: 14.71 (Units: m)</t>
+    <t>sample collection method</t>
+  </si>
+  <si>
+    <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
+  </si>
+  <si>
+    <t>sample storage conditions</t>
+  </si>
+  <si>
+    <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location. in soil context: explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other).</t>
+  </si>
+  <si>
+    <t>sample storage temperature</t>
+  </si>
+  <si>
+    <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
     <t>collected_by</t>
@@ -1041,6 +1053,9 @@
     <t>Czech Republic</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -1710,7 +1725,7 @@
     <t>geographic location (country and/or sea)</t>
   </si>
   <si>
-    <t>(Mandatory) The location the sample was collected from with the intention of sequencing, as defined by the country or sea. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
     <t>geographic location (latitude)</t>
@@ -1725,10 +1740,58 @@
     <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>sample collection device or method</t>
-  </si>
-  <si>
-    <t>(Optional) The method or deviced employed for collecting the sample</t>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>water temperature</t>
+  </si>
+  <si>
+    <t>(Optional) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. (Units: ºC)</t>
+  </si>
+  <si>
+    <t>sample storage duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
+  </si>
+  <si>
+    <t>light intensity</t>
+  </si>
+  <si>
+    <t>(Optional) Measurement of light intensity (Units: lux)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>(Optional) Ph measurement</t>
+  </si>
+  <si>
+    <t>salinity</t>
+  </si>
+  <si>
+    <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
+  </si>
+  <si>
+    <t>culture_collection</t>
+  </si>
+  <si>
+    <t>(Optional) Unique identifier that references the culture (e.g. live microbial and viral cultures and cell lines) from which the sample has been obtained and that have been deposited in curated culture collections. the id needs to provide an institution code and the culture id, with optional collection code, in the following structure: (-institution_code:(collection_code):voucher_id. please note institution codes (and optional collection codes) are taken from a controlled vocabulary maintained by the insdc: https://ftp.ncbi.nih.gov/pub/taxonomy/biocollections/</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>(Mandatory) Name of the strain from which the sample was obtained.</t>
+  </si>
+  <si>
+    <t>Further Details</t>
+  </si>
+  <si>
+    <t>(Optional) Reference details related to a sample in form of an uri.</t>
   </si>
   <si>
     <t>isolation and growth condition</t>
@@ -1737,76 +1800,16 @@
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>sample storage duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration for which sample was stored (Units: years)</t>
-  </si>
-  <si>
-    <t>sample storage temperature</t>
-  </si>
-  <si>
-    <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>(Recommended) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
   <si>
     <t>growth condition</t>
   </si>
   <si>
     <t>(Optional) A role that a material entity can play which enables particular conditions used to grow organisms or parts of the organism. this includes isolated environments such as cultures and open environments such as field studies.</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>(Optional) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. (Units: ºC)</t>
-  </si>
-  <si>
-    <t>Salinity</t>
-  </si>
-  <si>
-    <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
-  </si>
-  <si>
-    <t>sample storage conditions</t>
-  </si>
-  <si>
-    <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location</t>
-  </si>
-  <si>
-    <t>light intensity</t>
-  </si>
-  <si>
-    <t>(Optional) Measurement of light intensity (Units: lux)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>(Optional) Ph measurement</t>
-  </si>
-  <si>
-    <t>culture_collection</t>
-  </si>
-  <si>
-    <t>(Optional) Unique identifier that references the culture (e.g. live microbial and viral cultures and cell lines) from which the sample has been obtained and that have been deposited in curated culture collections. the id needs to provide an institution code and the culture id, with optional collection code, in the following structure: (-institution_code:(collection_code):voucher_id. please note institution codes (and optional collection codes) are taken from a controlled vocabulary maintained by the insdc: https://ftp.ncbi.nih.gov/pub/taxonomy/biocollections/</t>
-  </si>
-  <si>
-    <t>strain</t>
-  </si>
-  <si>
-    <t>(Mandatory) Name of the strain from which the sample was obtained.</t>
-  </si>
-  <si>
-    <t>Further Details</t>
-  </si>
-  <si>
-    <t>(Optional) Reference details related to a sample in form of an uri.</t>
   </si>
 </sst>
 </file>
@@ -3352,55 +3355,55 @@
         <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>558</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>560</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="150" customHeight="1">
@@ -3426,60 +3429,60 @@
         <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>559</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>561</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -3489,1445 +3492,1450 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H1:H287"/>
+  <dimension ref="J1:J288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="8:8">
-      <c r="H1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="8:8">
-      <c r="H2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="8:8">
-      <c r="H3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="8:8">
-      <c r="H4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="8:8">
-      <c r="H5" t="s">
+    <row r="1" spans="10:10">
+      <c r="J1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="8:8">
-      <c r="H6" t="s">
+    <row r="2" spans="10:10">
+      <c r="J2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="8:8">
-      <c r="H7" t="s">
+    <row r="3" spans="10:10">
+      <c r="J3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="8:8">
-      <c r="H8" t="s">
+    <row r="4" spans="10:10">
+      <c r="J4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="8:8">
-      <c r="H9" t="s">
+    <row r="5" spans="10:10">
+      <c r="J5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="8:8">
-      <c r="H10" t="s">
+    <row r="6" spans="10:10">
+      <c r="J6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="8:8">
-      <c r="H11" t="s">
+    <row r="7" spans="10:10">
+      <c r="J7" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="8:8">
-      <c r="H12" t="s">
+    <row r="8" spans="10:10">
+      <c r="J8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="8:8">
-      <c r="H13" t="s">
+    <row r="9" spans="10:10">
+      <c r="J9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="8:8">
-      <c r="H14" t="s">
+    <row r="10" spans="10:10">
+      <c r="J10" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="8:8">
-      <c r="H15" t="s">
+    <row r="11" spans="10:10">
+      <c r="J11" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="8:8">
-      <c r="H16" t="s">
+    <row r="12" spans="10:10">
+      <c r="J12" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="8:8">
-      <c r="H17" t="s">
+    <row r="13" spans="10:10">
+      <c r="J13" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="8:8">
-      <c r="H18" t="s">
+    <row r="14" spans="10:10">
+      <c r="J14" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="8:8">
-      <c r="H19" t="s">
+    <row r="15" spans="10:10">
+      <c r="J15" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="8:8">
-      <c r="H20" t="s">
+    <row r="16" spans="10:10">
+      <c r="J16" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="8:8">
-      <c r="H21" t="s">
+    <row r="17" spans="10:10">
+      <c r="J17" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="8:8">
-      <c r="H22" t="s">
+    <row r="18" spans="10:10">
+      <c r="J18" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="8:8">
-      <c r="H23" t="s">
+    <row r="19" spans="10:10">
+      <c r="J19" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="8:8">
-      <c r="H24" t="s">
+    <row r="20" spans="10:10">
+      <c r="J20" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="25" spans="8:8">
-      <c r="H25" t="s">
+    <row r="21" spans="10:10">
+      <c r="J21" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="8:8">
-      <c r="H26" t="s">
+    <row r="22" spans="10:10">
+      <c r="J22" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="27" spans="8:8">
-      <c r="H27" t="s">
+    <row r="23" spans="10:10">
+      <c r="J23" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="28" spans="8:8">
-      <c r="H28" t="s">
+    <row r="24" spans="10:10">
+      <c r="J24" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="29" spans="8:8">
-      <c r="H29" t="s">
+    <row r="25" spans="10:10">
+      <c r="J25" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="8:8">
-      <c r="H30" t="s">
+    <row r="26" spans="10:10">
+      <c r="J26" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="8:8">
-      <c r="H31" t="s">
+    <row r="27" spans="10:10">
+      <c r="J27" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="8:8">
-      <c r="H32" t="s">
+    <row r="28" spans="10:10">
+      <c r="J28" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="33" spans="8:8">
-      <c r="H33" t="s">
+    <row r="29" spans="10:10">
+      <c r="J29" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="34" spans="8:8">
-      <c r="H34" t="s">
+    <row r="30" spans="10:10">
+      <c r="J30" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="8:8">
-      <c r="H35" t="s">
+    <row r="31" spans="10:10">
+      <c r="J31" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="36" spans="8:8">
-      <c r="H36" t="s">
+    <row r="32" spans="10:10">
+      <c r="J32" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="37" spans="8:8">
-      <c r="H37" t="s">
+    <row r="33" spans="10:10">
+      <c r="J33" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="38" spans="8:8">
-      <c r="H38" t="s">
+    <row r="34" spans="10:10">
+      <c r="J34" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="39" spans="8:8">
-      <c r="H39" t="s">
+    <row r="35" spans="10:10">
+      <c r="J35" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="8:8">
-      <c r="H40" t="s">
+    <row r="36" spans="10:10">
+      <c r="J36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="8:8">
-      <c r="H41" t="s">
+    <row r="37" spans="10:10">
+      <c r="J37" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="8:8">
-      <c r="H42" t="s">
+    <row r="38" spans="10:10">
+      <c r="J38" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="43" spans="8:8">
-      <c r="H43" t="s">
+    <row r="39" spans="10:10">
+      <c r="J39" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="44" spans="8:8">
-      <c r="H44" t="s">
+    <row r="40" spans="10:10">
+      <c r="J40" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="8:8">
-      <c r="H45" t="s">
+    <row r="41" spans="10:10">
+      <c r="J41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="46" spans="8:8">
-      <c r="H46" t="s">
+    <row r="42" spans="10:10">
+      <c r="J42" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="47" spans="8:8">
-      <c r="H47" t="s">
+    <row r="43" spans="10:10">
+      <c r="J43" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="8:8">
-      <c r="H48" t="s">
+    <row r="44" spans="10:10">
+      <c r="J44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="8:8">
-      <c r="H49" t="s">
+    <row r="45" spans="10:10">
+      <c r="J45" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="50" spans="8:8">
-      <c r="H50" t="s">
+    <row r="46" spans="10:10">
+      <c r="J46" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="51" spans="8:8">
-      <c r="H51" t="s">
+    <row r="47" spans="10:10">
+      <c r="J47" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="8:8">
-      <c r="H52" t="s">
+    <row r="48" spans="10:10">
+      <c r="J48" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="8:8">
-      <c r="H53" t="s">
+    <row r="49" spans="10:10">
+      <c r="J49" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="8:8">
-      <c r="H54" t="s">
+    <row r="50" spans="10:10">
+      <c r="J50" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="55" spans="8:8">
-      <c r="H55" t="s">
+    <row r="51" spans="10:10">
+      <c r="J51" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="56" spans="8:8">
-      <c r="H56" t="s">
+    <row r="52" spans="10:10">
+      <c r="J52" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="57" spans="8:8">
-      <c r="H57" t="s">
+    <row r="53" spans="10:10">
+      <c r="J53" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="8:8">
-      <c r="H58" t="s">
+    <row r="54" spans="10:10">
+      <c r="J54" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="59" spans="8:8">
-      <c r="H59" t="s">
+    <row r="55" spans="10:10">
+      <c r="J55" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="60" spans="8:8">
-      <c r="H60" t="s">
+    <row r="56" spans="10:10">
+      <c r="J56" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="61" spans="8:8">
-      <c r="H61" t="s">
+    <row r="57" spans="10:10">
+      <c r="J57" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="62" spans="8:8">
-      <c r="H62" t="s">
+    <row r="58" spans="10:10">
+      <c r="J58" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="63" spans="8:8">
-      <c r="H63" t="s">
+    <row r="59" spans="10:10">
+      <c r="J59" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="64" spans="8:8">
-      <c r="H64" t="s">
+    <row r="60" spans="10:10">
+      <c r="J60" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="65" spans="8:8">
-      <c r="H65" t="s">
+    <row r="61" spans="10:10">
+      <c r="J61" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="8:8">
-      <c r="H66" t="s">
+    <row r="62" spans="10:10">
+      <c r="J62" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="67" spans="8:8">
-      <c r="H67" t="s">
+    <row r="63" spans="10:10">
+      <c r="J63" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="68" spans="8:8">
-      <c r="H68" t="s">
+    <row r="64" spans="10:10">
+      <c r="J64" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="69" spans="8:8">
-      <c r="H69" t="s">
+    <row r="65" spans="10:10">
+      <c r="J65" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="70" spans="8:8">
-      <c r="H70" t="s">
+    <row r="66" spans="10:10">
+      <c r="J66" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="71" spans="8:8">
-      <c r="H71" t="s">
+    <row r="67" spans="10:10">
+      <c r="J67" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="72" spans="8:8">
-      <c r="H72" t="s">
+    <row r="68" spans="10:10">
+      <c r="J68" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="73" spans="8:8">
-      <c r="H73" t="s">
+    <row r="69" spans="10:10">
+      <c r="J69" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="74" spans="8:8">
-      <c r="H74" t="s">
+    <row r="70" spans="10:10">
+      <c r="J70" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="75" spans="8:8">
-      <c r="H75" t="s">
+    <row r="71" spans="10:10">
+      <c r="J71" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="76" spans="8:8">
-      <c r="H76" t="s">
+    <row r="72" spans="10:10">
+      <c r="J72" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="77" spans="8:8">
-      <c r="H77" t="s">
+    <row r="73" spans="10:10">
+      <c r="J73" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="78" spans="8:8">
-      <c r="H78" t="s">
+    <row r="74" spans="10:10">
+      <c r="J74" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="79" spans="8:8">
-      <c r="H79" t="s">
+    <row r="75" spans="10:10">
+      <c r="J75" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="80" spans="8:8">
-      <c r="H80" t="s">
+    <row r="76" spans="10:10">
+      <c r="J76" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="81" spans="8:8">
-      <c r="H81" t="s">
+    <row r="77" spans="10:10">
+      <c r="J77" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="82" spans="8:8">
-      <c r="H82" t="s">
+    <row r="78" spans="10:10">
+      <c r="J78" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="83" spans="8:8">
-      <c r="H83" t="s">
+    <row r="79" spans="10:10">
+      <c r="J79" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="8:8">
-      <c r="H84" t="s">
+    <row r="80" spans="10:10">
+      <c r="J80" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="85" spans="8:8">
-      <c r="H85" t="s">
+    <row r="81" spans="10:10">
+      <c r="J81" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="86" spans="8:8">
-      <c r="H86" t="s">
+    <row r="82" spans="10:10">
+      <c r="J82" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="87" spans="8:8">
-      <c r="H87" t="s">
+    <row r="83" spans="10:10">
+      <c r="J83" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="88" spans="8:8">
-      <c r="H88" t="s">
+    <row r="84" spans="10:10">
+      <c r="J84" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="89" spans="8:8">
-      <c r="H89" t="s">
+    <row r="85" spans="10:10">
+      <c r="J85" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="90" spans="8:8">
-      <c r="H90" t="s">
+    <row r="86" spans="10:10">
+      <c r="J86" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="91" spans="8:8">
-      <c r="H91" t="s">
+    <row r="87" spans="10:10">
+      <c r="J87" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="92" spans="8:8">
-      <c r="H92" t="s">
+    <row r="88" spans="10:10">
+      <c r="J88" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="93" spans="8:8">
-      <c r="H93" t="s">
+    <row r="89" spans="10:10">
+      <c r="J89" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="94" spans="8:8">
-      <c r="H94" t="s">
+    <row r="90" spans="10:10">
+      <c r="J90" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="95" spans="8:8">
-      <c r="H95" t="s">
+    <row r="91" spans="10:10">
+      <c r="J91" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="96" spans="8:8">
-      <c r="H96" t="s">
+    <row r="92" spans="10:10">
+      <c r="J92" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="97" spans="8:8">
-      <c r="H97" t="s">
+    <row r="93" spans="10:10">
+      <c r="J93" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="98" spans="8:8">
-      <c r="H98" t="s">
+    <row r="94" spans="10:10">
+      <c r="J94" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="8:8">
-      <c r="H99" t="s">
+    <row r="95" spans="10:10">
+      <c r="J95" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="100" spans="8:8">
-      <c r="H100" t="s">
+    <row r="96" spans="10:10">
+      <c r="J96" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="101" spans="8:8">
-      <c r="H101" t="s">
+    <row r="97" spans="10:10">
+      <c r="J97" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="102" spans="8:8">
-      <c r="H102" t="s">
+    <row r="98" spans="10:10">
+      <c r="J98" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="103" spans="8:8">
-      <c r="H103" t="s">
+    <row r="99" spans="10:10">
+      <c r="J99" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="104" spans="8:8">
-      <c r="H104" t="s">
+    <row r="100" spans="10:10">
+      <c r="J100" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="105" spans="8:8">
-      <c r="H105" t="s">
+    <row r="101" spans="10:10">
+      <c r="J101" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="106" spans="8:8">
-      <c r="H106" t="s">
+    <row r="102" spans="10:10">
+      <c r="J102" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="107" spans="8:8">
-      <c r="H107" t="s">
+    <row r="103" spans="10:10">
+      <c r="J103" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="108" spans="8:8">
-      <c r="H108" t="s">
+    <row r="104" spans="10:10">
+      <c r="J104" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="109" spans="8:8">
-      <c r="H109" t="s">
+    <row r="105" spans="10:10">
+      <c r="J105" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="110" spans="8:8">
-      <c r="H110" t="s">
+    <row r="106" spans="10:10">
+      <c r="J106" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="111" spans="8:8">
-      <c r="H111" t="s">
+    <row r="107" spans="10:10">
+      <c r="J107" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="112" spans="8:8">
-      <c r="H112" t="s">
+    <row r="108" spans="10:10">
+      <c r="J108" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="113" spans="8:8">
-      <c r="H113" t="s">
+    <row r="109" spans="10:10">
+      <c r="J109" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="114" spans="8:8">
-      <c r="H114" t="s">
+    <row r="110" spans="10:10">
+      <c r="J110" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="115" spans="8:8">
-      <c r="H115" t="s">
+    <row r="111" spans="10:10">
+      <c r="J111" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="116" spans="8:8">
-      <c r="H116" t="s">
+    <row r="112" spans="10:10">
+      <c r="J112" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="117" spans="8:8">
-      <c r="H117" t="s">
+    <row r="113" spans="10:10">
+      <c r="J113" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="118" spans="8:8">
-      <c r="H118" t="s">
+    <row r="114" spans="10:10">
+      <c r="J114" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="119" spans="8:8">
-      <c r="H119" t="s">
+    <row r="115" spans="10:10">
+      <c r="J115" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="120" spans="8:8">
-      <c r="H120" t="s">
+    <row r="116" spans="10:10">
+      <c r="J116" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="8:8">
-      <c r="H121" t="s">
+    <row r="117" spans="10:10">
+      <c r="J117" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="122" spans="8:8">
-      <c r="H122" t="s">
+    <row r="118" spans="10:10">
+      <c r="J118" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="123" spans="8:8">
-      <c r="H123" t="s">
+    <row r="119" spans="10:10">
+      <c r="J119" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="124" spans="8:8">
-      <c r="H124" t="s">
+    <row r="120" spans="10:10">
+      <c r="J120" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="125" spans="8:8">
-      <c r="H125" t="s">
+    <row r="121" spans="10:10">
+      <c r="J121" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="126" spans="8:8">
-      <c r="H126" t="s">
+    <row r="122" spans="10:10">
+      <c r="J122" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="127" spans="8:8">
-      <c r="H127" t="s">
+    <row r="123" spans="10:10">
+      <c r="J123" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="128" spans="8:8">
-      <c r="H128" t="s">
+    <row r="124" spans="10:10">
+      <c r="J124" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="129" spans="8:8">
-      <c r="H129" t="s">
+    <row r="125" spans="10:10">
+      <c r="J125" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="130" spans="8:8">
-      <c r="H130" t="s">
+    <row r="126" spans="10:10">
+      <c r="J126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="131" spans="8:8">
-      <c r="H131" t="s">
+    <row r="127" spans="10:10">
+      <c r="J127" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="132" spans="8:8">
-      <c r="H132" t="s">
+    <row r="128" spans="10:10">
+      <c r="J128" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="133" spans="8:8">
-      <c r="H133" t="s">
+    <row r="129" spans="10:10">
+      <c r="J129" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="134" spans="8:8">
-      <c r="H134" t="s">
+    <row r="130" spans="10:10">
+      <c r="J130" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="135" spans="8:8">
-      <c r="H135" t="s">
+    <row r="131" spans="10:10">
+      <c r="J131" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="136" spans="8:8">
-      <c r="H136" t="s">
+    <row r="132" spans="10:10">
+      <c r="J132" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="137" spans="8:8">
-      <c r="H137" t="s">
+    <row r="133" spans="10:10">
+      <c r="J133" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="138" spans="8:8">
-      <c r="H138" t="s">
+    <row r="134" spans="10:10">
+      <c r="J134" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="139" spans="8:8">
-      <c r="H139" t="s">
+    <row r="135" spans="10:10">
+      <c r="J135" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="140" spans="8:8">
-      <c r="H140" t="s">
+    <row r="136" spans="10:10">
+      <c r="J136" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="141" spans="8:8">
-      <c r="H141" t="s">
+    <row r="137" spans="10:10">
+      <c r="J137" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="142" spans="8:8">
-      <c r="H142" t="s">
+    <row r="138" spans="10:10">
+      <c r="J138" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="143" spans="8:8">
-      <c r="H143" t="s">
+    <row r="139" spans="10:10">
+      <c r="J139" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="144" spans="8:8">
-      <c r="H144" t="s">
+    <row r="140" spans="10:10">
+      <c r="J140" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="145" spans="8:8">
-      <c r="H145" t="s">
+    <row r="141" spans="10:10">
+      <c r="J141" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="146" spans="8:8">
-      <c r="H146" t="s">
+    <row r="142" spans="10:10">
+      <c r="J142" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="147" spans="8:8">
-      <c r="H147" t="s">
+    <row r="143" spans="10:10">
+      <c r="J143" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="148" spans="8:8">
-      <c r="H148" t="s">
+    <row r="144" spans="10:10">
+      <c r="J144" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="149" spans="8:8">
-      <c r="H149" t="s">
+    <row r="145" spans="10:10">
+      <c r="J145" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="150" spans="8:8">
-      <c r="H150" t="s">
+    <row r="146" spans="10:10">
+      <c r="J146" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="151" spans="8:8">
-      <c r="H151" t="s">
+    <row r="147" spans="10:10">
+      <c r="J147" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="152" spans="8:8">
-      <c r="H152" t="s">
+    <row r="148" spans="10:10">
+      <c r="J148" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="153" spans="8:8">
-      <c r="H153" t="s">
+    <row r="149" spans="10:10">
+      <c r="J149" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="154" spans="8:8">
-      <c r="H154" t="s">
+    <row r="150" spans="10:10">
+      <c r="J150" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="155" spans="8:8">
-      <c r="H155" t="s">
+    <row r="151" spans="10:10">
+      <c r="J151" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="156" spans="8:8">
-      <c r="H156" t="s">
+    <row r="152" spans="10:10">
+      <c r="J152" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="157" spans="8:8">
-      <c r="H157" t="s">
+    <row r="153" spans="10:10">
+      <c r="J153" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="158" spans="8:8">
-      <c r="H158" t="s">
+    <row r="154" spans="10:10">
+      <c r="J154" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="159" spans="8:8">
-      <c r="H159" t="s">
+    <row r="155" spans="10:10">
+      <c r="J155" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="160" spans="8:8">
-      <c r="H160" t="s">
+    <row r="156" spans="10:10">
+      <c r="J156" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="161" spans="8:8">
-      <c r="H161" t="s">
+    <row r="157" spans="10:10">
+      <c r="J157" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="162" spans="8:8">
-      <c r="H162" t="s">
+    <row r="158" spans="10:10">
+      <c r="J158" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="163" spans="8:8">
-      <c r="H163" t="s">
+    <row r="159" spans="10:10">
+      <c r="J159" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="164" spans="8:8">
-      <c r="H164" t="s">
+    <row r="160" spans="10:10">
+      <c r="J160" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="165" spans="8:8">
-      <c r="H165" t="s">
+    <row r="161" spans="10:10">
+      <c r="J161" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="166" spans="8:8">
-      <c r="H166" t="s">
+    <row r="162" spans="10:10">
+      <c r="J162" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="167" spans="8:8">
-      <c r="H167" t="s">
+    <row r="163" spans="10:10">
+      <c r="J163" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="168" spans="8:8">
-      <c r="H168" t="s">
+    <row r="164" spans="10:10">
+      <c r="J164" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="169" spans="8:8">
-      <c r="H169" t="s">
+    <row r="165" spans="10:10">
+      <c r="J165" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="170" spans="8:8">
-      <c r="H170" t="s">
+    <row r="166" spans="10:10">
+      <c r="J166" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="171" spans="8:8">
-      <c r="H171" t="s">
+    <row r="167" spans="10:10">
+      <c r="J167" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="172" spans="8:8">
-      <c r="H172" t="s">
+    <row r="168" spans="10:10">
+      <c r="J168" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="173" spans="8:8">
-      <c r="H173" t="s">
+    <row r="169" spans="10:10">
+      <c r="J169" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="174" spans="8:8">
-      <c r="H174" t="s">
+    <row r="170" spans="10:10">
+      <c r="J170" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="175" spans="8:8">
-      <c r="H175" t="s">
+    <row r="171" spans="10:10">
+      <c r="J171" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="176" spans="8:8">
-      <c r="H176" t="s">
+    <row r="172" spans="10:10">
+      <c r="J172" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="177" spans="8:8">
-      <c r="H177" t="s">
+    <row r="173" spans="10:10">
+      <c r="J173" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="178" spans="8:8">
-      <c r="H178" t="s">
+    <row r="174" spans="10:10">
+      <c r="J174" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="179" spans="8:8">
-      <c r="H179" t="s">
+    <row r="175" spans="10:10">
+      <c r="J175" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="180" spans="8:8">
-      <c r="H180" t="s">
+    <row r="176" spans="10:10">
+      <c r="J176" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="181" spans="8:8">
-      <c r="H181" t="s">
+    <row r="177" spans="10:10">
+      <c r="J177" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="182" spans="8:8">
-      <c r="H182" t="s">
+    <row r="178" spans="10:10">
+      <c r="J178" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="183" spans="8:8">
-      <c r="H183" t="s">
+    <row r="179" spans="10:10">
+      <c r="J179" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="184" spans="8:8">
-      <c r="H184" t="s">
+    <row r="180" spans="10:10">
+      <c r="J180" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="185" spans="8:8">
-      <c r="H185" t="s">
+    <row r="181" spans="10:10">
+      <c r="J181" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="186" spans="8:8">
-      <c r="H186" t="s">
+    <row r="182" spans="10:10">
+      <c r="J182" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="187" spans="8:8">
-      <c r="H187" t="s">
+    <row r="183" spans="10:10">
+      <c r="J183" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="188" spans="8:8">
-      <c r="H188" t="s">
+    <row r="184" spans="10:10">
+      <c r="J184" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="189" spans="8:8">
-      <c r="H189" t="s">
+    <row r="185" spans="10:10">
+      <c r="J185" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="190" spans="8:8">
-      <c r="H190" t="s">
+    <row r="186" spans="10:10">
+      <c r="J186" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="191" spans="8:8">
-      <c r="H191" t="s">
+    <row r="187" spans="10:10">
+      <c r="J187" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="192" spans="8:8">
-      <c r="H192" t="s">
+    <row r="188" spans="10:10">
+      <c r="J188" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="193" spans="8:8">
-      <c r="H193" t="s">
+    <row r="189" spans="10:10">
+      <c r="J189" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="194" spans="8:8">
-      <c r="H194" t="s">
+    <row r="190" spans="10:10">
+      <c r="J190" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="195" spans="8:8">
-      <c r="H195" t="s">
+    <row r="191" spans="10:10">
+      <c r="J191" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="196" spans="8:8">
-      <c r="H196" t="s">
+    <row r="192" spans="10:10">
+      <c r="J192" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="197" spans="8:8">
-      <c r="H197" t="s">
+    <row r="193" spans="10:10">
+      <c r="J193" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="198" spans="8:8">
-      <c r="H198" t="s">
+    <row r="194" spans="10:10">
+      <c r="J194" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="199" spans="8:8">
-      <c r="H199" t="s">
+    <row r="195" spans="10:10">
+      <c r="J195" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="200" spans="8:8">
-      <c r="H200" t="s">
+    <row r="196" spans="10:10">
+      <c r="J196" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="201" spans="8:8">
-      <c r="H201" t="s">
+    <row r="197" spans="10:10">
+      <c r="J197" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="202" spans="8:8">
-      <c r="H202" t="s">
+    <row r="198" spans="10:10">
+      <c r="J198" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="203" spans="8:8">
-      <c r="H203" t="s">
+    <row r="199" spans="10:10">
+      <c r="J199" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="204" spans="8:8">
-      <c r="H204" t="s">
+    <row r="200" spans="10:10">
+      <c r="J200" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="205" spans="8:8">
-      <c r="H205" t="s">
+    <row r="201" spans="10:10">
+      <c r="J201" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="206" spans="8:8">
-      <c r="H206" t="s">
+    <row r="202" spans="10:10">
+      <c r="J202" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="207" spans="8:8">
-      <c r="H207" t="s">
+    <row r="203" spans="10:10">
+      <c r="J203" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="208" spans="8:8">
-      <c r="H208" t="s">
+    <row r="204" spans="10:10">
+      <c r="J204" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="209" spans="8:8">
-      <c r="H209" t="s">
+    <row r="205" spans="10:10">
+      <c r="J205" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="210" spans="8:8">
-      <c r="H210" t="s">
+    <row r="206" spans="10:10">
+      <c r="J206" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="211" spans="8:8">
-      <c r="H211" t="s">
+    <row r="207" spans="10:10">
+      <c r="J207" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="212" spans="8:8">
-      <c r="H212" t="s">
+    <row r="208" spans="10:10">
+      <c r="J208" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="213" spans="8:8">
-      <c r="H213" t="s">
+    <row r="209" spans="10:10">
+      <c r="J209" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="214" spans="8:8">
-      <c r="H214" t="s">
+    <row r="210" spans="10:10">
+      <c r="J210" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="215" spans="8:8">
-      <c r="H215" t="s">
+    <row r="211" spans="10:10">
+      <c r="J211" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="216" spans="8:8">
-      <c r="H216" t="s">
+    <row r="212" spans="10:10">
+      <c r="J212" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="217" spans="8:8">
-      <c r="H217" t="s">
+    <row r="213" spans="10:10">
+      <c r="J213" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="218" spans="8:8">
-      <c r="H218" t="s">
+    <row r="214" spans="10:10">
+      <c r="J214" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="219" spans="8:8">
-      <c r="H219" t="s">
+    <row r="215" spans="10:10">
+      <c r="J215" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="220" spans="8:8">
-      <c r="H220" t="s">
+    <row r="216" spans="10:10">
+      <c r="J216" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="221" spans="8:8">
-      <c r="H221" t="s">
+    <row r="217" spans="10:10">
+      <c r="J217" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="222" spans="8:8">
-      <c r="H222" t="s">
+    <row r="218" spans="10:10">
+      <c r="J218" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="223" spans="8:8">
-      <c r="H223" t="s">
+    <row r="219" spans="10:10">
+      <c r="J219" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="224" spans="8:8">
-      <c r="H224" t="s">
+    <row r="220" spans="10:10">
+      <c r="J220" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="225" spans="8:8">
-      <c r="H225" t="s">
+    <row r="221" spans="10:10">
+      <c r="J221" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="226" spans="8:8">
-      <c r="H226" t="s">
+    <row r="222" spans="10:10">
+      <c r="J222" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="227" spans="8:8">
-      <c r="H227" t="s">
+    <row r="223" spans="10:10">
+      <c r="J223" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="228" spans="8:8">
-      <c r="H228" t="s">
+    <row r="224" spans="10:10">
+      <c r="J224" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="229" spans="8:8">
-      <c r="H229" t="s">
+    <row r="225" spans="10:10">
+      <c r="J225" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="230" spans="8:8">
-      <c r="H230" t="s">
+    <row r="226" spans="10:10">
+      <c r="J226" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="231" spans="8:8">
-      <c r="H231" t="s">
+    <row r="227" spans="10:10">
+      <c r="J227" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="232" spans="8:8">
-      <c r="H232" t="s">
+    <row r="228" spans="10:10">
+      <c r="J228" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="233" spans="8:8">
-      <c r="H233" t="s">
+    <row r="229" spans="10:10">
+      <c r="J229" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="234" spans="8:8">
-      <c r="H234" t="s">
+    <row r="230" spans="10:10">
+      <c r="J230" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="235" spans="8:8">
-      <c r="H235" t="s">
+    <row r="231" spans="10:10">
+      <c r="J231" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="236" spans="8:8">
-      <c r="H236" t="s">
+    <row r="232" spans="10:10">
+      <c r="J232" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="237" spans="8:8">
-      <c r="H237" t="s">
+    <row r="233" spans="10:10">
+      <c r="J233" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="238" spans="8:8">
-      <c r="H238" t="s">
+    <row r="234" spans="10:10">
+      <c r="J234" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="239" spans="8:8">
-      <c r="H239" t="s">
+    <row r="235" spans="10:10">
+      <c r="J235" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="240" spans="8:8">
-      <c r="H240" t="s">
+    <row r="236" spans="10:10">
+      <c r="J236" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="241" spans="8:8">
-      <c r="H241" t="s">
+    <row r="237" spans="10:10">
+      <c r="J237" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="242" spans="8:8">
-      <c r="H242" t="s">
+    <row r="238" spans="10:10">
+      <c r="J238" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="243" spans="8:8">
-      <c r="H243" t="s">
+    <row r="239" spans="10:10">
+      <c r="J239" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="244" spans="8:8">
-      <c r="H244" t="s">
+    <row r="240" spans="10:10">
+      <c r="J240" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="245" spans="8:8">
-      <c r="H245" t="s">
+    <row r="241" spans="10:10">
+      <c r="J241" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="246" spans="8:8">
-      <c r="H246" t="s">
+    <row r="242" spans="10:10">
+      <c r="J242" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="247" spans="8:8">
-      <c r="H247" t="s">
+    <row r="243" spans="10:10">
+      <c r="J243" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="248" spans="8:8">
-      <c r="H248" t="s">
+    <row r="244" spans="10:10">
+      <c r="J244" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="249" spans="8:8">
-      <c r="H249" t="s">
+    <row r="245" spans="10:10">
+      <c r="J245" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="250" spans="8:8">
-      <c r="H250" t="s">
+    <row r="246" spans="10:10">
+      <c r="J246" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="251" spans="8:8">
-      <c r="H251" t="s">
+    <row r="247" spans="10:10">
+      <c r="J247" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="252" spans="8:8">
-      <c r="H252" t="s">
+    <row r="248" spans="10:10">
+      <c r="J248" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="253" spans="8:8">
-      <c r="H253" t="s">
+    <row r="249" spans="10:10">
+      <c r="J249" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="254" spans="8:8">
-      <c r="H254" t="s">
+    <row r="250" spans="10:10">
+      <c r="J250" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="255" spans="8:8">
-      <c r="H255" t="s">
+    <row r="251" spans="10:10">
+      <c r="J251" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="256" spans="8:8">
-      <c r="H256" t="s">
+    <row r="252" spans="10:10">
+      <c r="J252" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="257" spans="8:8">
-      <c r="H257" t="s">
+    <row r="253" spans="10:10">
+      <c r="J253" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="258" spans="8:8">
-      <c r="H258" t="s">
+    <row r="254" spans="10:10">
+      <c r="J254" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="259" spans="8:8">
-      <c r="H259" t="s">
+    <row r="255" spans="10:10">
+      <c r="J255" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="260" spans="8:8">
-      <c r="H260" t="s">
+    <row r="256" spans="10:10">
+      <c r="J256" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="261" spans="8:8">
-      <c r="H261" t="s">
+    <row r="257" spans="10:10">
+      <c r="J257" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="262" spans="8:8">
-      <c r="H262" t="s">
+    <row r="258" spans="10:10">
+      <c r="J258" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="263" spans="8:8">
-      <c r="H263" t="s">
+    <row r="259" spans="10:10">
+      <c r="J259" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="264" spans="8:8">
-      <c r="H264" t="s">
+    <row r="260" spans="10:10">
+      <c r="J260" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="265" spans="8:8">
-      <c r="H265" t="s">
+    <row r="261" spans="10:10">
+      <c r="J261" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="266" spans="8:8">
-      <c r="H266" t="s">
+    <row r="262" spans="10:10">
+      <c r="J262" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="267" spans="8:8">
-      <c r="H267" t="s">
+    <row r="263" spans="10:10">
+      <c r="J263" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="268" spans="8:8">
-      <c r="H268" t="s">
+    <row r="264" spans="10:10">
+      <c r="J264" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="269" spans="8:8">
-      <c r="H269" t="s">
+    <row r="265" spans="10:10">
+      <c r="J265" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="270" spans="8:8">
-      <c r="H270" t="s">
+    <row r="266" spans="10:10">
+      <c r="J266" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="271" spans="8:8">
-      <c r="H271" t="s">
+    <row r="267" spans="10:10">
+      <c r="J267" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="272" spans="8:8">
-      <c r="H272" t="s">
+    <row r="268" spans="10:10">
+      <c r="J268" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="273" spans="8:8">
-      <c r="H273" t="s">
+    <row r="269" spans="10:10">
+      <c r="J269" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="274" spans="8:8">
-      <c r="H274" t="s">
+    <row r="270" spans="10:10">
+      <c r="J270" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="275" spans="8:8">
-      <c r="H275" t="s">
+    <row r="271" spans="10:10">
+      <c r="J271" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="276" spans="8:8">
-      <c r="H276" t="s">
+    <row r="272" spans="10:10">
+      <c r="J272" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="277" spans="8:8">
-      <c r="H277" t="s">
+    <row r="273" spans="10:10">
+      <c r="J273" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="278" spans="8:8">
-      <c r="H278" t="s">
+    <row r="274" spans="10:10">
+      <c r="J274" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="279" spans="8:8">
-      <c r="H279" t="s">
+    <row r="275" spans="10:10">
+      <c r="J275" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="280" spans="8:8">
-      <c r="H280" t="s">
+    <row r="276" spans="10:10">
+      <c r="J276" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="281" spans="8:8">
-      <c r="H281" t="s">
+    <row r="277" spans="10:10">
+      <c r="J277" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="282" spans="8:8">
-      <c r="H282" t="s">
+    <row r="278" spans="10:10">
+      <c r="J278" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="283" spans="8:8">
-      <c r="H283" t="s">
+    <row r="279" spans="10:10">
+      <c r="J279" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="284" spans="8:8">
-      <c r="H284" t="s">
+    <row r="280" spans="10:10">
+      <c r="J280" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="285" spans="8:8">
-      <c r="H285" t="s">
+    <row r="281" spans="10:10">
+      <c r="J281" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="286" spans="8:8">
-      <c r="H286" t="s">
+    <row r="282" spans="10:10">
+      <c r="J282" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="287" spans="8:8">
-      <c r="H287" t="s">
+    <row r="283" spans="10:10">
+      <c r="J283" t="s">
         <v>557</v>
+      </c>
+    </row>
+    <row r="284" spans="10:10">
+      <c r="J284" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="285" spans="10:10">
+      <c r="J285" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="286" spans="10:10">
+      <c r="J286" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="287" spans="10:10">
+      <c r="J287" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="288" spans="10:10">
+      <c r="J288" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000043/metadata_template_ERC000043.xlsx
+++ b/templates/ERC000043/metadata_template_ERC000043.xlsx
@@ -1050,10 +1050,10 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Czechia</t>
   </si>
   <si>
     <t>Democratic Republic of the Congo</t>

--- a/templates/ERC000043/metadata_template_ERC000043.xlsx
+++ b/templates/ERC000043/metadata_template_ERC000043.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="594">
   <si>
     <t>alias</t>
   </si>
@@ -811,6 +811,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3340,144 +3343,144 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -3500,1442 +3503,1442 @@
   <sheetData>
     <row r="1" spans="10:10">
       <c r="J1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="10:10">
       <c r="J2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="10:10">
       <c r="J3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="10:10">
       <c r="J4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="10:10">
       <c r="J5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="10:10">
       <c r="J6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="10:10">
       <c r="J7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="10:10">
       <c r="J8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="10:10">
       <c r="J9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="10:10">
       <c r="J11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="10:10">
       <c r="J12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="10:10">
       <c r="J14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="10:10">
       <c r="J15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="10:10">
       <c r="J16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="10:10">
       <c r="J17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="10:10">
       <c r="J18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="10:10">
       <c r="J19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="10:10">
       <c r="J20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="10:10">
       <c r="J21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="10:10">
       <c r="J22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="10:10">
       <c r="J23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="10:10">
       <c r="J24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="10:10">
       <c r="J25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="10:10">
       <c r="J26" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="10:10">
       <c r="J27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="10:10">
       <c r="J28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="10:10">
       <c r="J29" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="10:10">
       <c r="J30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="10:10">
       <c r="J32" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="10:10">
       <c r="J33" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="10:10">
       <c r="J34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="10:10">
       <c r="J35" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="10:10">
       <c r="J36" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="10:10">
       <c r="J37" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="10:10">
       <c r="J38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="10:10">
       <c r="J39" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="10:10">
       <c r="J40" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="10:10">
       <c r="J41" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="10:10">
       <c r="J42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="10:10">
       <c r="J43" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="10:10">
       <c r="J44" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="10:10">
       <c r="J45" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="10:10">
       <c r="J46" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="10:10">
       <c r="J47" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="10:10">
       <c r="J48" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="10:10">
       <c r="J49" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="10:10">
       <c r="J50" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="10:10">
       <c r="J51" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="10:10">
       <c r="J52" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="10:10">
       <c r="J53" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="10:10">
       <c r="J54" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="10:10">
       <c r="J55" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="10:10">
       <c r="J56" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="10:10">
       <c r="J57" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="10:10">
       <c r="J58" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="10:10">
       <c r="J59" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="10:10">
       <c r="J60" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="10:10">
       <c r="J61" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="10:10">
       <c r="J62" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="10:10">
       <c r="J63" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="10:10">
       <c r="J64" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="10:10">
       <c r="J65" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="10:10">
       <c r="J66" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="10:10">
       <c r="J67" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="10:10">
       <c r="J68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="10:10">
       <c r="J69" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="10:10">
       <c r="J70" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="10:10">
       <c r="J71" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="10:10">
       <c r="J72" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="10:10">
       <c r="J73" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="10:10">
       <c r="J74" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="10:10">
       <c r="J75" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="10:10">
       <c r="J76" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="10:10">
       <c r="J77" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="10:10">
       <c r="J78" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="10:10">
       <c r="J79" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="10:10">
       <c r="J80" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="10:10">
       <c r="J81" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" spans="10:10">
       <c r="J82" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="10:10">
       <c r="J83" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="10:10">
       <c r="J84" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="10:10">
       <c r="J85" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="10:10">
       <c r="J86" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="10:10">
       <c r="J87" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88" spans="10:10">
       <c r="J88" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89" spans="10:10">
       <c r="J89" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="10:10">
       <c r="J90" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="10:10">
       <c r="J91" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92" spans="10:10">
       <c r="J92" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="10:10">
       <c r="J93" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="10:10">
       <c r="J94" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" spans="10:10">
       <c r="J95" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="10:10">
       <c r="J96" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="10:10">
       <c r="J97" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" spans="10:10">
       <c r="J98" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="10:10">
       <c r="J99" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="10:10">
       <c r="J100" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="10:10">
       <c r="J101" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="10:10">
       <c r="J102" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="10:10">
       <c r="J103" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="10:10">
       <c r="J104" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="10:10">
       <c r="J105" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="10:10">
       <c r="J106" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="10:10">
       <c r="J107" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="108" spans="10:10">
       <c r="J108" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="109" spans="10:10">
       <c r="J109" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110" spans="10:10">
       <c r="J110" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="111" spans="10:10">
       <c r="J111" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="112" spans="10:10">
       <c r="J112" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="113" spans="10:10">
       <c r="J113" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="114" spans="10:10">
       <c r="J114" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115" spans="10:10">
       <c r="J115" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="116" spans="10:10">
       <c r="J116" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="10:10">
       <c r="J117" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="118" spans="10:10">
       <c r="J118" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119" spans="10:10">
       <c r="J119" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" spans="10:10">
       <c r="J120" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="121" spans="10:10">
       <c r="J121" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" spans="10:10">
       <c r="J122" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="10:10">
       <c r="J123" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="124" spans="10:10">
       <c r="J124" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125" spans="10:10">
       <c r="J125" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="10:10">
       <c r="J126" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="10:10">
       <c r="J127" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="128" spans="10:10">
       <c r="J128" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="129" spans="10:10">
       <c r="J129" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="130" spans="10:10">
       <c r="J130" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="131" spans="10:10">
       <c r="J131" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="132" spans="10:10">
       <c r="J132" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="133" spans="10:10">
       <c r="J133" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="134" spans="10:10">
       <c r="J134" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="135" spans="10:10">
       <c r="J135" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="136" spans="10:10">
       <c r="J136" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="137" spans="10:10">
       <c r="J137" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="138" spans="10:10">
       <c r="J138" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="139" spans="10:10">
       <c r="J139" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="140" spans="10:10">
       <c r="J140" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="141" spans="10:10">
       <c r="J141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="142" spans="10:10">
       <c r="J142" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="143" spans="10:10">
       <c r="J143" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="144" spans="10:10">
       <c r="J144" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="145" spans="10:10">
       <c r="J145" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="146" spans="10:10">
       <c r="J146" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="147" spans="10:10">
       <c r="J147" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="148" spans="10:10">
       <c r="J148" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="149" spans="10:10">
       <c r="J149" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="150" spans="10:10">
       <c r="J150" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="151" spans="10:10">
       <c r="J151" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="152" spans="10:10">
       <c r="J152" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="153" spans="10:10">
       <c r="J153" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="154" spans="10:10">
       <c r="J154" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="155" spans="10:10">
       <c r="J155" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="156" spans="10:10">
       <c r="J156" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="157" spans="10:10">
       <c r="J157" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="158" spans="10:10">
       <c r="J158" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="159" spans="10:10">
       <c r="J159" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="160" spans="10:10">
       <c r="J160" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="161" spans="10:10">
       <c r="J161" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="162" spans="10:10">
       <c r="J162" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="163" spans="10:10">
       <c r="J163" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="164" spans="10:10">
       <c r="J164" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="165" spans="10:10">
       <c r="J165" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="166" spans="10:10">
       <c r="J166" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="167" spans="10:10">
       <c r="J167" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="168" spans="10:10">
       <c r="J168" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="169" spans="10:10">
       <c r="J169" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="170" spans="10:10">
       <c r="J170" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="171" spans="10:10">
       <c r="J171" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="172" spans="10:10">
       <c r="J172" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="173" spans="10:10">
       <c r="J173" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="174" spans="10:10">
       <c r="J174" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="175" spans="10:10">
       <c r="J175" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="176" spans="10:10">
       <c r="J176" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="177" spans="10:10">
       <c r="J177" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="178" spans="10:10">
       <c r="J178" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="179" spans="10:10">
       <c r="J179" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="180" spans="10:10">
       <c r="J180" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="181" spans="10:10">
       <c r="J181" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="182" spans="10:10">
       <c r="J182" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="183" spans="10:10">
       <c r="J183" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="184" spans="10:10">
       <c r="J184" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="185" spans="10:10">
       <c r="J185" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="186" spans="10:10">
       <c r="J186" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="187" spans="10:10">
       <c r="J187" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="188" spans="10:10">
       <c r="J188" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="189" spans="10:10">
       <c r="J189" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="190" spans="10:10">
       <c r="J190" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="191" spans="10:10">
       <c r="J191" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="192" spans="10:10">
       <c r="J192" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="193" spans="10:10">
       <c r="J193" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="194" spans="10:10">
       <c r="J194" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="195" spans="10:10">
       <c r="J195" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="196" spans="10:10">
       <c r="J196" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="197" spans="10:10">
       <c r="J197" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="198" spans="10:10">
       <c r="J198" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="199" spans="10:10">
       <c r="J199" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="200" spans="10:10">
       <c r="J200" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="201" spans="10:10">
       <c r="J201" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="202" spans="10:10">
       <c r="J202" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="203" spans="10:10">
       <c r="J203" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="204" spans="10:10">
       <c r="J204" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="205" spans="10:10">
       <c r="J205" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="206" spans="10:10">
       <c r="J206" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="207" spans="10:10">
       <c r="J207" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="208" spans="10:10">
       <c r="J208" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="209" spans="10:10">
       <c r="J209" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="210" spans="10:10">
       <c r="J210" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="211" spans="10:10">
       <c r="J211" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="212" spans="10:10">
       <c r="J212" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="213" spans="10:10">
       <c r="J213" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="214" spans="10:10">
       <c r="J214" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="215" spans="10:10">
       <c r="J215" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="216" spans="10:10">
       <c r="J216" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="217" spans="10:10">
       <c r="J217" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="218" spans="10:10">
       <c r="J218" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="219" spans="10:10">
       <c r="J219" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="220" spans="10:10">
       <c r="J220" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="221" spans="10:10">
       <c r="J221" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="222" spans="10:10">
       <c r="J222" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="223" spans="10:10">
       <c r="J223" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="224" spans="10:10">
       <c r="J224" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="225" spans="10:10">
       <c r="J225" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="226" spans="10:10">
       <c r="J226" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="227" spans="10:10">
       <c r="J227" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="228" spans="10:10">
       <c r="J228" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="229" spans="10:10">
       <c r="J229" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="230" spans="10:10">
       <c r="J230" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="231" spans="10:10">
       <c r="J231" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="232" spans="10:10">
       <c r="J232" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="233" spans="10:10">
       <c r="J233" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="234" spans="10:10">
       <c r="J234" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="235" spans="10:10">
       <c r="J235" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="236" spans="10:10">
       <c r="J236" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="237" spans="10:10">
       <c r="J237" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="238" spans="10:10">
       <c r="J238" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="239" spans="10:10">
       <c r="J239" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="240" spans="10:10">
       <c r="J240" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="241" spans="10:10">
       <c r="J241" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="242" spans="10:10">
       <c r="J242" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="243" spans="10:10">
       <c r="J243" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="244" spans="10:10">
       <c r="J244" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="245" spans="10:10">
       <c r="J245" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="246" spans="10:10">
       <c r="J246" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="247" spans="10:10">
       <c r="J247" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="248" spans="10:10">
       <c r="J248" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="249" spans="10:10">
       <c r="J249" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="250" spans="10:10">
       <c r="J250" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="251" spans="10:10">
       <c r="J251" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="252" spans="10:10">
       <c r="J252" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="253" spans="10:10">
       <c r="J253" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="254" spans="10:10">
       <c r="J254" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="255" spans="10:10">
       <c r="J255" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="256" spans="10:10">
       <c r="J256" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="257" spans="10:10">
       <c r="J257" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="258" spans="10:10">
       <c r="J258" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="259" spans="10:10">
       <c r="J259" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="260" spans="10:10">
       <c r="J260" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="261" spans="10:10">
       <c r="J261" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="262" spans="10:10">
       <c r="J262" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="263" spans="10:10">
       <c r="J263" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="264" spans="10:10">
       <c r="J264" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="265" spans="10:10">
       <c r="J265" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="266" spans="10:10">
       <c r="J266" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="267" spans="10:10">
       <c r="J267" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="268" spans="10:10">
       <c r="J268" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="269" spans="10:10">
       <c r="J269" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="270" spans="10:10">
       <c r="J270" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="271" spans="10:10">
       <c r="J271" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="272" spans="10:10">
       <c r="J272" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="273" spans="10:10">
       <c r="J273" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="274" spans="10:10">
       <c r="J274" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="275" spans="10:10">
       <c r="J275" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="276" spans="10:10">
       <c r="J276" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="277" spans="10:10">
       <c r="J277" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="278" spans="10:10">
       <c r="J278" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="279" spans="10:10">
       <c r="J279" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="280" spans="10:10">
       <c r="J280" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="281" spans="10:10">
       <c r="J281" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="282" spans="10:10">
       <c r="J282" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="283" spans="10:10">
       <c r="J283" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="284" spans="10:10">
       <c r="J284" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="285" spans="10:10">
       <c r="J285" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="286" spans="10:10">
       <c r="J286" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="287" spans="10:10">
       <c r="J287" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="288" spans="10:10">
       <c r="J288" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000043/metadata_template_ERC000043.xlsx
+++ b/templates/ERC000043/metadata_template_ERC000043.xlsx
@@ -111,7 +111,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -129,7 +129,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000043/metadata_template_ERC000043.xlsx
+++ b/templates/ERC000043/metadata_template_ERC000043.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$J$1:$J$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="595">
   <si>
     <t>alias</t>
   </si>
@@ -861,6 +861,36 @@
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>water temperature</t>
+  </si>
+  <si>
+    <t>(Optional) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. (Units: ºC)</t>
+  </si>
+  <si>
+    <t>sample storage duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1689,6 +1719,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1729,36 +1762,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>water temperature</t>
-  </si>
-  <si>
-    <t>(Optional) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. (Units: ºC)</t>
-  </si>
-  <si>
-    <t>sample storage duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
   </si>
   <si>
     <t>light intensity</t>
@@ -3364,49 +3367,49 @@
         <v>274</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>564</v>
+        <v>276</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>566</v>
+        <v>278</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>568</v>
+        <v>280</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>570</v>
+        <v>282</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>572</v>
+        <v>284</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="150" customHeight="1">
@@ -3438,54 +3441,54 @@
         <v>275</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>565</v>
+        <v>277</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>567</v>
+        <v>279</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>569</v>
+        <v>281</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>571</v>
+        <v>283</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>573</v>
+        <v>285</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -3495,1450 +3498,1455 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J1:J288"/>
+  <dimension ref="O1:O289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="10:10">
-      <c r="J1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="2" spans="10:10">
-      <c r="J2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="10:10">
-      <c r="J3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="10:10">
-      <c r="J4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="10:10">
-      <c r="J5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="10:10">
-      <c r="J6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="10:10">
-      <c r="J7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="10:10">
-      <c r="J8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="10:10">
-      <c r="J9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="10:10">
-      <c r="J10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="10:10">
-      <c r="J11" t="s">
+    <row r="1" spans="15:15">
+      <c r="O1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="10:10">
-      <c r="J12" t="s">
+    <row r="2" spans="15:15">
+      <c r="O2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="10:10">
-      <c r="J13" t="s">
+    <row r="3" spans="15:15">
+      <c r="O3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="10:10">
-      <c r="J14" t="s">
+    <row r="4" spans="15:15">
+      <c r="O4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="10:10">
-      <c r="J15" t="s">
+    <row r="5" spans="15:15">
+      <c r="O5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="10:10">
-      <c r="J16" t="s">
+    <row r="6" spans="15:15">
+      <c r="O6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="10:10">
-      <c r="J17" t="s">
+    <row r="7" spans="15:15">
+      <c r="O7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="10:10">
-      <c r="J18" t="s">
+    <row r="8" spans="15:15">
+      <c r="O8" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="10:10">
-      <c r="J19" t="s">
+    <row r="9" spans="15:15">
+      <c r="O9" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="10:10">
-      <c r="J20" t="s">
+    <row r="10" spans="15:15">
+      <c r="O10" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="10:10">
-      <c r="J21" t="s">
+    <row r="11" spans="15:15">
+      <c r="O11" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="10:10">
-      <c r="J22" t="s">
+    <row r="12" spans="15:15">
+      <c r="O12" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="10:10">
-      <c r="J23" t="s">
+    <row r="13" spans="15:15">
+      <c r="O13" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="10:10">
-      <c r="J24" t="s">
+    <row r="14" spans="15:15">
+      <c r="O14" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="10:10">
-      <c r="J25" t="s">
+    <row r="15" spans="15:15">
+      <c r="O15" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="10:10">
-      <c r="J26" t="s">
+    <row r="16" spans="15:15">
+      <c r="O16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="10:10">
-      <c r="J27" t="s">
+    <row r="17" spans="15:15">
+      <c r="O17" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="10:10">
-      <c r="J28" t="s">
+    <row r="18" spans="15:15">
+      <c r="O18" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="10:10">
-      <c r="J29" t="s">
+    <row r="19" spans="15:15">
+      <c r="O19" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="10:10">
-      <c r="J30" t="s">
+    <row r="20" spans="15:15">
+      <c r="O20" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="31" spans="10:10">
-      <c r="J31" t="s">
+    <row r="21" spans="15:15">
+      <c r="O21" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="10:10">
-      <c r="J32" t="s">
+    <row r="22" spans="15:15">
+      <c r="O22" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="33" spans="10:10">
-      <c r="J33" t="s">
+    <row r="23" spans="15:15">
+      <c r="O23" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="34" spans="10:10">
-      <c r="J34" t="s">
+    <row r="24" spans="15:15">
+      <c r="O24" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="10:10">
-      <c r="J35" t="s">
+    <row r="25" spans="15:15">
+      <c r="O25" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="10:10">
-      <c r="J36" t="s">
+    <row r="26" spans="15:15">
+      <c r="O26" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="10:10">
-      <c r="J37" t="s">
+    <row r="27" spans="15:15">
+      <c r="O27" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="10:10">
-      <c r="J38" t="s">
+    <row r="28" spans="15:15">
+      <c r="O28" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="39" spans="10:10">
-      <c r="J39" t="s">
+    <row r="29" spans="15:15">
+      <c r="O29" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="40" spans="10:10">
-      <c r="J40" t="s">
+    <row r="30" spans="15:15">
+      <c r="O30" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="41" spans="10:10">
-      <c r="J41" t="s">
+    <row r="31" spans="15:15">
+      <c r="O31" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="42" spans="10:10">
-      <c r="J42" t="s">
+    <row r="32" spans="15:15">
+      <c r="O32" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="43" spans="10:10">
-      <c r="J43" t="s">
+    <row r="33" spans="15:15">
+      <c r="O33" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="44" spans="10:10">
-      <c r="J44" t="s">
+    <row r="34" spans="15:15">
+      <c r="O34" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="45" spans="10:10">
-      <c r="J45" t="s">
+    <row r="35" spans="15:15">
+      <c r="O35" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="46" spans="10:10">
-      <c r="J46" t="s">
+    <row r="36" spans="15:15">
+      <c r="O36" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="10:10">
-      <c r="J47" t="s">
+    <row r="37" spans="15:15">
+      <c r="O37" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="10:10">
-      <c r="J48" t="s">
+    <row r="38" spans="15:15">
+      <c r="O38" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="49" spans="10:10">
-      <c r="J49" t="s">
+    <row r="39" spans="15:15">
+      <c r="O39" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="50" spans="10:10">
-      <c r="J50" t="s">
+    <row r="40" spans="15:15">
+      <c r="O40" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="51" spans="10:10">
-      <c r="J51" t="s">
+    <row r="41" spans="15:15">
+      <c r="O41" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="52" spans="10:10">
-      <c r="J52" t="s">
+    <row r="42" spans="15:15">
+      <c r="O42" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="53" spans="10:10">
-      <c r="J53" t="s">
+    <row r="43" spans="15:15">
+      <c r="O43" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="54" spans="10:10">
-      <c r="J54" t="s">
+    <row r="44" spans="15:15">
+      <c r="O44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="10:10">
-      <c r="J55" t="s">
+    <row r="45" spans="15:15">
+      <c r="O45" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="10:10">
-      <c r="J56" t="s">
+    <row r="46" spans="15:15">
+      <c r="O46" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="57" spans="10:10">
-      <c r="J57" t="s">
+    <row r="47" spans="15:15">
+      <c r="O47" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="58" spans="10:10">
-      <c r="J58" t="s">
+    <row r="48" spans="15:15">
+      <c r="O48" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="59" spans="10:10">
-      <c r="J59" t="s">
+    <row r="49" spans="15:15">
+      <c r="O49" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="60" spans="10:10">
-      <c r="J60" t="s">
+    <row r="50" spans="15:15">
+      <c r="O50" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="61" spans="10:10">
-      <c r="J61" t="s">
+    <row r="51" spans="15:15">
+      <c r="O51" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="62" spans="10:10">
-      <c r="J62" t="s">
+    <row r="52" spans="15:15">
+      <c r="O52" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="63" spans="10:10">
-      <c r="J63" t="s">
+    <row r="53" spans="15:15">
+      <c r="O53" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="64" spans="10:10">
-      <c r="J64" t="s">
+    <row r="54" spans="15:15">
+      <c r="O54" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="65" spans="10:10">
-      <c r="J65" t="s">
+    <row r="55" spans="15:15">
+      <c r="O55" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="66" spans="10:10">
-      <c r="J66" t="s">
+    <row r="56" spans="15:15">
+      <c r="O56" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="10:10">
-      <c r="J67" t="s">
+    <row r="57" spans="15:15">
+      <c r="O57" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="68" spans="10:10">
-      <c r="J68" t="s">
+    <row r="58" spans="15:15">
+      <c r="O58" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="69" spans="10:10">
-      <c r="J69" t="s">
+    <row r="59" spans="15:15">
+      <c r="O59" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="10:10">
-      <c r="J70" t="s">
+    <row r="60" spans="15:15">
+      <c r="O60" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="10:10">
-      <c r="J71" t="s">
+    <row r="61" spans="15:15">
+      <c r="O61" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="72" spans="10:10">
-      <c r="J72" t="s">
+    <row r="62" spans="15:15">
+      <c r="O62" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="73" spans="10:10">
-      <c r="J73" t="s">
+    <row r="63" spans="15:15">
+      <c r="O63" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="74" spans="10:10">
-      <c r="J74" t="s">
+    <row r="64" spans="15:15">
+      <c r="O64" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="75" spans="10:10">
-      <c r="J75" t="s">
+    <row r="65" spans="15:15">
+      <c r="O65" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="76" spans="10:10">
-      <c r="J76" t="s">
+    <row r="66" spans="15:15">
+      <c r="O66" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="77" spans="10:10">
-      <c r="J77" t="s">
+    <row r="67" spans="15:15">
+      <c r="O67" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="78" spans="10:10">
-      <c r="J78" t="s">
+    <row r="68" spans="15:15">
+      <c r="O68" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="79" spans="10:10">
-      <c r="J79" t="s">
+    <row r="69" spans="15:15">
+      <c r="O69" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="80" spans="10:10">
-      <c r="J80" t="s">
+    <row r="70" spans="15:15">
+      <c r="O70" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="81" spans="10:10">
-      <c r="J81" t="s">
+    <row r="71" spans="15:15">
+      <c r="O71" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="82" spans="10:10">
-      <c r="J82" t="s">
+    <row r="72" spans="15:15">
+      <c r="O72" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="83" spans="10:10">
-      <c r="J83" t="s">
+    <row r="73" spans="15:15">
+      <c r="O73" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="84" spans="10:10">
-      <c r="J84" t="s">
+    <row r="74" spans="15:15">
+      <c r="O74" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="85" spans="10:10">
-      <c r="J85" t="s">
+    <row r="75" spans="15:15">
+      <c r="O75" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="86" spans="10:10">
-      <c r="J86" t="s">
+    <row r="76" spans="15:15">
+      <c r="O76" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="87" spans="10:10">
-      <c r="J87" t="s">
+    <row r="77" spans="15:15">
+      <c r="O77" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="88" spans="10:10">
-      <c r="J88" t="s">
+    <row r="78" spans="15:15">
+      <c r="O78" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="89" spans="10:10">
-      <c r="J89" t="s">
+    <row r="79" spans="15:15">
+      <c r="O79" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="90" spans="10:10">
-      <c r="J90" t="s">
+    <row r="80" spans="15:15">
+      <c r="O80" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="91" spans="10:10">
-      <c r="J91" t="s">
+    <row r="81" spans="15:15">
+      <c r="O81" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="92" spans="10:10">
-      <c r="J92" t="s">
+    <row r="82" spans="15:15">
+      <c r="O82" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="93" spans="10:10">
-      <c r="J93" t="s">
+    <row r="83" spans="15:15">
+      <c r="O83" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="94" spans="10:10">
-      <c r="J94" t="s">
+    <row r="84" spans="15:15">
+      <c r="O84" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="95" spans="10:10">
-      <c r="J95" t="s">
+    <row r="85" spans="15:15">
+      <c r="O85" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="96" spans="10:10">
-      <c r="J96" t="s">
+    <row r="86" spans="15:15">
+      <c r="O86" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="97" spans="10:10">
-      <c r="J97" t="s">
+    <row r="87" spans="15:15">
+      <c r="O87" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="98" spans="10:10">
-      <c r="J98" t="s">
+    <row r="88" spans="15:15">
+      <c r="O88" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="99" spans="10:10">
-      <c r="J99" t="s">
+    <row r="89" spans="15:15">
+      <c r="O89" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="100" spans="10:10">
-      <c r="J100" t="s">
+    <row r="90" spans="15:15">
+      <c r="O90" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="101" spans="10:10">
-      <c r="J101" t="s">
+    <row r="91" spans="15:15">
+      <c r="O91" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="102" spans="10:10">
-      <c r="J102" t="s">
+    <row r="92" spans="15:15">
+      <c r="O92" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="103" spans="10:10">
-      <c r="J103" t="s">
+    <row r="93" spans="15:15">
+      <c r="O93" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="104" spans="10:10">
-      <c r="J104" t="s">
+    <row r="94" spans="15:15">
+      <c r="O94" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="105" spans="10:10">
-      <c r="J105" t="s">
+    <row r="95" spans="15:15">
+      <c r="O95" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="106" spans="10:10">
-      <c r="J106" t="s">
+    <row r="96" spans="15:15">
+      <c r="O96" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="107" spans="10:10">
-      <c r="J107" t="s">
+    <row r="97" spans="15:15">
+      <c r="O97" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="108" spans="10:10">
-      <c r="J108" t="s">
+    <row r="98" spans="15:15">
+      <c r="O98" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="109" spans="10:10">
-      <c r="J109" t="s">
+    <row r="99" spans="15:15">
+      <c r="O99" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="110" spans="10:10">
-      <c r="J110" t="s">
+    <row r="100" spans="15:15">
+      <c r="O100" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="111" spans="10:10">
-      <c r="J111" t="s">
+    <row r="101" spans="15:15">
+      <c r="O101" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="112" spans="10:10">
-      <c r="J112" t="s">
+    <row r="102" spans="15:15">
+      <c r="O102" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="113" spans="10:10">
-      <c r="J113" t="s">
+    <row r="103" spans="15:15">
+      <c r="O103" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="114" spans="10:10">
-      <c r="J114" t="s">
+    <row r="104" spans="15:15">
+      <c r="O104" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="115" spans="10:10">
-      <c r="J115" t="s">
+    <row r="105" spans="15:15">
+      <c r="O105" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="116" spans="10:10">
-      <c r="J116" t="s">
+    <row r="106" spans="15:15">
+      <c r="O106" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="117" spans="10:10">
-      <c r="J117" t="s">
+    <row r="107" spans="15:15">
+      <c r="O107" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="118" spans="10:10">
-      <c r="J118" t="s">
+    <row r="108" spans="15:15">
+      <c r="O108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="119" spans="10:10">
-      <c r="J119" t="s">
+    <row r="109" spans="15:15">
+      <c r="O109" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="120" spans="10:10">
-      <c r="J120" t="s">
+    <row r="110" spans="15:15">
+      <c r="O110" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="121" spans="10:10">
-      <c r="J121" t="s">
+    <row r="111" spans="15:15">
+      <c r="O111" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="122" spans="10:10">
-      <c r="J122" t="s">
+    <row r="112" spans="15:15">
+      <c r="O112" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="123" spans="10:10">
-      <c r="J123" t="s">
+    <row r="113" spans="15:15">
+      <c r="O113" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="10:10">
-      <c r="J124" t="s">
+    <row r="114" spans="15:15">
+      <c r="O114" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="125" spans="10:10">
-      <c r="J125" t="s">
+    <row r="115" spans="15:15">
+      <c r="O115" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="10:10">
-      <c r="J126" t="s">
+    <row r="116" spans="15:15">
+      <c r="O116" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="127" spans="10:10">
-      <c r="J127" t="s">
+    <row r="117" spans="15:15">
+      <c r="O117" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="128" spans="10:10">
-      <c r="J128" t="s">
+    <row r="118" spans="15:15">
+      <c r="O118" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="129" spans="10:10">
-      <c r="J129" t="s">
+    <row r="119" spans="15:15">
+      <c r="O119" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="130" spans="10:10">
-      <c r="J130" t="s">
+    <row r="120" spans="15:15">
+      <c r="O120" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="131" spans="10:10">
-      <c r="J131" t="s">
+    <row r="121" spans="15:15">
+      <c r="O121" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="132" spans="10:10">
-      <c r="J132" t="s">
+    <row r="122" spans="15:15">
+      <c r="O122" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="133" spans="10:10">
-      <c r="J133" t="s">
+    <row r="123" spans="15:15">
+      <c r="O123" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="134" spans="10:10">
-      <c r="J134" t="s">
+    <row r="124" spans="15:15">
+      <c r="O124" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="135" spans="10:10">
-      <c r="J135" t="s">
+    <row r="125" spans="15:15">
+      <c r="O125" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="136" spans="10:10">
-      <c r="J136" t="s">
+    <row r="126" spans="15:15">
+      <c r="O126" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="137" spans="10:10">
-      <c r="J137" t="s">
+    <row r="127" spans="15:15">
+      <c r="O127" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="138" spans="10:10">
-      <c r="J138" t="s">
+    <row r="128" spans="15:15">
+      <c r="O128" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="139" spans="10:10">
-      <c r="J139" t="s">
+    <row r="129" spans="15:15">
+      <c r="O129" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="140" spans="10:10">
-      <c r="J140" t="s">
+    <row r="130" spans="15:15">
+      <c r="O130" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="141" spans="10:10">
-      <c r="J141" t="s">
+    <row r="131" spans="15:15">
+      <c r="O131" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="142" spans="10:10">
-      <c r="J142" t="s">
+    <row r="132" spans="15:15">
+      <c r="O132" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="143" spans="10:10">
-      <c r="J143" t="s">
+    <row r="133" spans="15:15">
+      <c r="O133" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="144" spans="10:10">
-      <c r="J144" t="s">
+    <row r="134" spans="15:15">
+      <c r="O134" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="145" spans="10:10">
-      <c r="J145" t="s">
+    <row r="135" spans="15:15">
+      <c r="O135" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="146" spans="10:10">
-      <c r="J146" t="s">
+    <row r="136" spans="15:15">
+      <c r="O136" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="147" spans="10:10">
-      <c r="J147" t="s">
+    <row r="137" spans="15:15">
+      <c r="O137" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="148" spans="10:10">
-      <c r="J148" t="s">
+    <row r="138" spans="15:15">
+      <c r="O138" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="149" spans="10:10">
-      <c r="J149" t="s">
+    <row r="139" spans="15:15">
+      <c r="O139" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="150" spans="10:10">
-      <c r="J150" t="s">
+    <row r="140" spans="15:15">
+      <c r="O140" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="151" spans="10:10">
-      <c r="J151" t="s">
+    <row r="141" spans="15:15">
+      <c r="O141" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="152" spans="10:10">
-      <c r="J152" t="s">
+    <row r="142" spans="15:15">
+      <c r="O142" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="153" spans="10:10">
-      <c r="J153" t="s">
+    <row r="143" spans="15:15">
+      <c r="O143" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="154" spans="10:10">
-      <c r="J154" t="s">
+    <row r="144" spans="15:15">
+      <c r="O144" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="155" spans="10:10">
-      <c r="J155" t="s">
+    <row r="145" spans="15:15">
+      <c r="O145" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="156" spans="10:10">
-      <c r="J156" t="s">
+    <row r="146" spans="15:15">
+      <c r="O146" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="157" spans="10:10">
-      <c r="J157" t="s">
+    <row r="147" spans="15:15">
+      <c r="O147" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="158" spans="10:10">
-      <c r="J158" t="s">
+    <row r="148" spans="15:15">
+      <c r="O148" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="159" spans="10:10">
-      <c r="J159" t="s">
+    <row r="149" spans="15:15">
+      <c r="O149" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="160" spans="10:10">
-      <c r="J160" t="s">
+    <row r="150" spans="15:15">
+      <c r="O150" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="161" spans="10:10">
-      <c r="J161" t="s">
+    <row r="151" spans="15:15">
+      <c r="O151" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="162" spans="10:10">
-      <c r="J162" t="s">
+    <row r="152" spans="15:15">
+      <c r="O152" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="163" spans="10:10">
-      <c r="J163" t="s">
+    <row r="153" spans="15:15">
+      <c r="O153" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="164" spans="10:10">
-      <c r="J164" t="s">
+    <row r="154" spans="15:15">
+      <c r="O154" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="165" spans="10:10">
-      <c r="J165" t="s">
+    <row r="155" spans="15:15">
+      <c r="O155" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="166" spans="10:10">
-      <c r="J166" t="s">
+    <row r="156" spans="15:15">
+      <c r="O156" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="167" spans="10:10">
-      <c r="J167" t="s">
+    <row r="157" spans="15:15">
+      <c r="O157" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="168" spans="10:10">
-      <c r="J168" t="s">
+    <row r="158" spans="15:15">
+      <c r="O158" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="169" spans="10:10">
-      <c r="J169" t="s">
+    <row r="159" spans="15:15">
+      <c r="O159" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="170" spans="10:10">
-      <c r="J170" t="s">
+    <row r="160" spans="15:15">
+      <c r="O160" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="171" spans="10:10">
-      <c r="J171" t="s">
+    <row r="161" spans="15:15">
+      <c r="O161" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="172" spans="10:10">
-      <c r="J172" t="s">
+    <row r="162" spans="15:15">
+      <c r="O162" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="173" spans="10:10">
-      <c r="J173" t="s">
+    <row r="163" spans="15:15">
+      <c r="O163" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="174" spans="10:10">
-      <c r="J174" t="s">
+    <row r="164" spans="15:15">
+      <c r="O164" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="175" spans="10:10">
-      <c r="J175" t="s">
+    <row r="165" spans="15:15">
+      <c r="O165" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="176" spans="10:10">
-      <c r="J176" t="s">
+    <row r="166" spans="15:15">
+      <c r="O166" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="177" spans="10:10">
-      <c r="J177" t="s">
+    <row r="167" spans="15:15">
+      <c r="O167" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="178" spans="10:10">
-      <c r="J178" t="s">
+    <row r="168" spans="15:15">
+      <c r="O168" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="179" spans="10:10">
-      <c r="J179" t="s">
+    <row r="169" spans="15:15">
+      <c r="O169" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="180" spans="10:10">
-      <c r="J180" t="s">
+    <row r="170" spans="15:15">
+      <c r="O170" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="181" spans="10:10">
-      <c r="J181" t="s">
+    <row r="171" spans="15:15">
+      <c r="O171" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="182" spans="10:10">
-      <c r="J182" t="s">
+    <row r="172" spans="15:15">
+      <c r="O172" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="183" spans="10:10">
-      <c r="J183" t="s">
+    <row r="173" spans="15:15">
+      <c r="O173" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="184" spans="10:10">
-      <c r="J184" t="s">
+    <row r="174" spans="15:15">
+      <c r="O174" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="185" spans="10:10">
-      <c r="J185" t="s">
+    <row r="175" spans="15:15">
+      <c r="O175" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="186" spans="10:10">
-      <c r="J186" t="s">
+    <row r="176" spans="15:15">
+      <c r="O176" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="187" spans="10:10">
-      <c r="J187" t="s">
+    <row r="177" spans="15:15">
+      <c r="O177" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="188" spans="10:10">
-      <c r="J188" t="s">
+    <row r="178" spans="15:15">
+      <c r="O178" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="189" spans="10:10">
-      <c r="J189" t="s">
+    <row r="179" spans="15:15">
+      <c r="O179" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="190" spans="10:10">
-      <c r="J190" t="s">
+    <row r="180" spans="15:15">
+      <c r="O180" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="191" spans="10:10">
-      <c r="J191" t="s">
+    <row r="181" spans="15:15">
+      <c r="O181" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="192" spans="10:10">
-      <c r="J192" t="s">
+    <row r="182" spans="15:15">
+      <c r="O182" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="193" spans="10:10">
-      <c r="J193" t="s">
+    <row r="183" spans="15:15">
+      <c r="O183" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="194" spans="10:10">
-      <c r="J194" t="s">
+    <row r="184" spans="15:15">
+      <c r="O184" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="195" spans="10:10">
-      <c r="J195" t="s">
+    <row r="185" spans="15:15">
+      <c r="O185" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="196" spans="10:10">
-      <c r="J196" t="s">
+    <row r="186" spans="15:15">
+      <c r="O186" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="197" spans="10:10">
-      <c r="J197" t="s">
+    <row r="187" spans="15:15">
+      <c r="O187" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="198" spans="10:10">
-      <c r="J198" t="s">
+    <row r="188" spans="15:15">
+      <c r="O188" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="199" spans="10:10">
-      <c r="J199" t="s">
+    <row r="189" spans="15:15">
+      <c r="O189" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="200" spans="10:10">
-      <c r="J200" t="s">
+    <row r="190" spans="15:15">
+      <c r="O190" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="201" spans="10:10">
-      <c r="J201" t="s">
+    <row r="191" spans="15:15">
+      <c r="O191" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="202" spans="10:10">
-      <c r="J202" t="s">
+    <row r="192" spans="15:15">
+      <c r="O192" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="203" spans="10:10">
-      <c r="J203" t="s">
+    <row r="193" spans="15:15">
+      <c r="O193" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="204" spans="10:10">
-      <c r="J204" t="s">
+    <row r="194" spans="15:15">
+      <c r="O194" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="205" spans="10:10">
-      <c r="J205" t="s">
+    <row r="195" spans="15:15">
+      <c r="O195" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="206" spans="10:10">
-      <c r="J206" t="s">
+    <row r="196" spans="15:15">
+      <c r="O196" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="207" spans="10:10">
-      <c r="J207" t="s">
+    <row r="197" spans="15:15">
+      <c r="O197" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="208" spans="10:10">
-      <c r="J208" t="s">
+    <row r="198" spans="15:15">
+      <c r="O198" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="209" spans="10:10">
-      <c r="J209" t="s">
+    <row r="199" spans="15:15">
+      <c r="O199" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="210" spans="10:10">
-      <c r="J210" t="s">
+    <row r="200" spans="15:15">
+      <c r="O200" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="211" spans="10:10">
-      <c r="J211" t="s">
+    <row r="201" spans="15:15">
+      <c r="O201" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="212" spans="10:10">
-      <c r="J212" t="s">
+    <row r="202" spans="15:15">
+      <c r="O202" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="213" spans="10:10">
-      <c r="J213" t="s">
+    <row r="203" spans="15:15">
+      <c r="O203" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="214" spans="10:10">
-      <c r="J214" t="s">
+    <row r="204" spans="15:15">
+      <c r="O204" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="215" spans="10:10">
-      <c r="J215" t="s">
+    <row r="205" spans="15:15">
+      <c r="O205" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="216" spans="10:10">
-      <c r="J216" t="s">
+    <row r="206" spans="15:15">
+      <c r="O206" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="217" spans="10:10">
-      <c r="J217" t="s">
+    <row r="207" spans="15:15">
+      <c r="O207" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="218" spans="10:10">
-      <c r="J218" t="s">
+    <row r="208" spans="15:15">
+      <c r="O208" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="219" spans="10:10">
-      <c r="J219" t="s">
+    <row r="209" spans="15:15">
+      <c r="O209" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="220" spans="10:10">
-      <c r="J220" t="s">
+    <row r="210" spans="15:15">
+      <c r="O210" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="221" spans="10:10">
-      <c r="J221" t="s">
+    <row r="211" spans="15:15">
+      <c r="O211" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="222" spans="10:10">
-      <c r="J222" t="s">
+    <row r="212" spans="15:15">
+      <c r="O212" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="223" spans="10:10">
-      <c r="J223" t="s">
+    <row r="213" spans="15:15">
+      <c r="O213" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="224" spans="10:10">
-      <c r="J224" t="s">
+    <row r="214" spans="15:15">
+      <c r="O214" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="225" spans="10:10">
-      <c r="J225" t="s">
+    <row r="215" spans="15:15">
+      <c r="O215" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="226" spans="10:10">
-      <c r="J226" t="s">
+    <row r="216" spans="15:15">
+      <c r="O216" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="227" spans="10:10">
-      <c r="J227" t="s">
+    <row r="217" spans="15:15">
+      <c r="O217" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="228" spans="10:10">
-      <c r="J228" t="s">
+    <row r="218" spans="15:15">
+      <c r="O218" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="229" spans="10:10">
-      <c r="J229" t="s">
+    <row r="219" spans="15:15">
+      <c r="O219" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="230" spans="10:10">
-      <c r="J230" t="s">
+    <row r="220" spans="15:15">
+      <c r="O220" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="231" spans="10:10">
-      <c r="J231" t="s">
+    <row r="221" spans="15:15">
+      <c r="O221" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="232" spans="10:10">
-      <c r="J232" t="s">
+    <row r="222" spans="15:15">
+      <c r="O222" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="233" spans="10:10">
-      <c r="J233" t="s">
+    <row r="223" spans="15:15">
+      <c r="O223" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="234" spans="10:10">
-      <c r="J234" t="s">
+    <row r="224" spans="15:15">
+      <c r="O224" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="235" spans="10:10">
-      <c r="J235" t="s">
+    <row r="225" spans="15:15">
+      <c r="O225" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="236" spans="10:10">
-      <c r="J236" t="s">
+    <row r="226" spans="15:15">
+      <c r="O226" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="237" spans="10:10">
-      <c r="J237" t="s">
+    <row r="227" spans="15:15">
+      <c r="O227" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="238" spans="10:10">
-      <c r="J238" t="s">
+    <row r="228" spans="15:15">
+      <c r="O228" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="239" spans="10:10">
-      <c r="J239" t="s">
+    <row r="229" spans="15:15">
+      <c r="O229" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="240" spans="10:10">
-      <c r="J240" t="s">
+    <row r="230" spans="15:15">
+      <c r="O230" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="241" spans="10:10">
-      <c r="J241" t="s">
+    <row r="231" spans="15:15">
+      <c r="O231" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="242" spans="10:10">
-      <c r="J242" t="s">
+    <row r="232" spans="15:15">
+      <c r="O232" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="243" spans="10:10">
-      <c r="J243" t="s">
+    <row r="233" spans="15:15">
+      <c r="O233" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="244" spans="10:10">
-      <c r="J244" t="s">
+    <row r="234" spans="15:15">
+      <c r="O234" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="245" spans="10:10">
-      <c r="J245" t="s">
+    <row r="235" spans="15:15">
+      <c r="O235" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="246" spans="10:10">
-      <c r="J246" t="s">
+    <row r="236" spans="15:15">
+      <c r="O236" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="247" spans="10:10">
-      <c r="J247" t="s">
+    <row r="237" spans="15:15">
+      <c r="O237" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="248" spans="10:10">
-      <c r="J248" t="s">
+    <row r="238" spans="15:15">
+      <c r="O238" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="249" spans="10:10">
-      <c r="J249" t="s">
+    <row r="239" spans="15:15">
+      <c r="O239" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="250" spans="10:10">
-      <c r="J250" t="s">
+    <row r="240" spans="15:15">
+      <c r="O240" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="251" spans="10:10">
-      <c r="J251" t="s">
+    <row r="241" spans="15:15">
+      <c r="O241" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="252" spans="10:10">
-      <c r="J252" t="s">
+    <row r="242" spans="15:15">
+      <c r="O242" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="253" spans="10:10">
-      <c r="J253" t="s">
+    <row r="243" spans="15:15">
+      <c r="O243" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="254" spans="10:10">
-      <c r="J254" t="s">
+    <row r="244" spans="15:15">
+      <c r="O244" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="255" spans="10:10">
-      <c r="J255" t="s">
+    <row r="245" spans="15:15">
+      <c r="O245" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="256" spans="10:10">
-      <c r="J256" t="s">
+    <row r="246" spans="15:15">
+      <c r="O246" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="257" spans="10:10">
-      <c r="J257" t="s">
+    <row r="247" spans="15:15">
+      <c r="O247" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="258" spans="10:10">
-      <c r="J258" t="s">
+    <row r="248" spans="15:15">
+      <c r="O248" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="259" spans="10:10">
-      <c r="J259" t="s">
+    <row r="249" spans="15:15">
+      <c r="O249" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="260" spans="10:10">
-      <c r="J260" t="s">
+    <row r="250" spans="15:15">
+      <c r="O250" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="261" spans="10:10">
-      <c r="J261" t="s">
+    <row r="251" spans="15:15">
+      <c r="O251" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="262" spans="10:10">
-      <c r="J262" t="s">
+    <row r="252" spans="15:15">
+      <c r="O252" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="263" spans="10:10">
-      <c r="J263" t="s">
+    <row r="253" spans="15:15">
+      <c r="O253" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="264" spans="10:10">
-      <c r="J264" t="s">
+    <row r="254" spans="15:15">
+      <c r="O254" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="265" spans="10:10">
-      <c r="J265" t="s">
+    <row r="255" spans="15:15">
+      <c r="O255" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="266" spans="10:10">
-      <c r="J266" t="s">
+    <row r="256" spans="15:15">
+      <c r="O256" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="267" spans="10:10">
-      <c r="J267" t="s">
+    <row r="257" spans="15:15">
+      <c r="O257" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="268" spans="10:10">
-      <c r="J268" t="s">
+    <row r="258" spans="15:15">
+      <c r="O258" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="269" spans="10:10">
-      <c r="J269" t="s">
+    <row r="259" spans="15:15">
+      <c r="O259" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="270" spans="10:10">
-      <c r="J270" t="s">
+    <row r="260" spans="15:15">
+      <c r="O260" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="271" spans="10:10">
-      <c r="J271" t="s">
+    <row r="261" spans="15:15">
+      <c r="O261" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="272" spans="10:10">
-      <c r="J272" t="s">
+    <row r="262" spans="15:15">
+      <c r="O262" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="273" spans="10:10">
-      <c r="J273" t="s">
+    <row r="263" spans="15:15">
+      <c r="O263" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="274" spans="10:10">
-      <c r="J274" t="s">
+    <row r="264" spans="15:15">
+      <c r="O264" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="275" spans="10:10">
-      <c r="J275" t="s">
+    <row r="265" spans="15:15">
+      <c r="O265" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="276" spans="10:10">
-      <c r="J276" t="s">
+    <row r="266" spans="15:15">
+      <c r="O266" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="277" spans="10:10">
-      <c r="J277" t="s">
+    <row r="267" spans="15:15">
+      <c r="O267" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="278" spans="10:10">
-      <c r="J278" t="s">
+    <row r="268" spans="15:15">
+      <c r="O268" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="279" spans="10:10">
-      <c r="J279" t="s">
+    <row r="269" spans="15:15">
+      <c r="O269" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="280" spans="10:10">
-      <c r="J280" t="s">
+    <row r="270" spans="15:15">
+      <c r="O270" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="281" spans="10:10">
-      <c r="J281" t="s">
+    <row r="271" spans="15:15">
+      <c r="O271" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="282" spans="10:10">
-      <c r="J282" t="s">
+    <row r="272" spans="15:15">
+      <c r="O272" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="283" spans="10:10">
-      <c r="J283" t="s">
+    <row r="273" spans="15:15">
+      <c r="O273" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="284" spans="10:10">
-      <c r="J284" t="s">
+    <row r="274" spans="15:15">
+      <c r="O274" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="285" spans="10:10">
-      <c r="J285" t="s">
+    <row r="275" spans="15:15">
+      <c r="O275" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="286" spans="10:10">
-      <c r="J286" t="s">
+    <row r="276" spans="15:15">
+      <c r="O276" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="287" spans="10:10">
-      <c r="J287" t="s">
+    <row r="277" spans="15:15">
+      <c r="O277" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="288" spans="10:10">
-      <c r="J288" t="s">
+    <row r="278" spans="15:15">
+      <c r="O278" t="s">
         <v>563</v>
+      </c>
+    </row>
+    <row r="279" spans="15:15">
+      <c r="O279" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="280" spans="15:15">
+      <c r="O280" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="281" spans="15:15">
+      <c r="O281" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="282" spans="15:15">
+      <c r="O282" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="283" spans="15:15">
+      <c r="O283" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="284" spans="15:15">
+      <c r="O284" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="285" spans="15:15">
+      <c r="O285" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="286" spans="15:15">
+      <c r="O286" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="287" spans="15:15">
+      <c r="O287" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="288" spans="15:15">
+      <c r="O288" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="289" spans="15:15">
+      <c r="O289" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000043/metadata_template_ERC000043.xlsx
+++ b/templates/ERC000043/metadata_template_ERC000043.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="596">
   <si>
     <t>alias</t>
   </si>
@@ -634,6 +634,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2354,7 +2357,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2398,7 +2401,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2425,7 +2428,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3137,6 +3140,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3161,27 +3169,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3204,122 +3212,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3346,144 +3354,144 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -3506,1447 +3514,1447 @@
   <sheetData>
     <row r="1" spans="15:15">
       <c r="O1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="15:15">
       <c r="O2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="15:15">
       <c r="O3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="15:15">
       <c r="O4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="15:15">
       <c r="O5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="15:15">
       <c r="O6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="15:15">
       <c r="O7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="15:15">
       <c r="O8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="15:15">
       <c r="O9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="15:15">
       <c r="O10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="15:15">
       <c r="O11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="15:15">
       <c r="O12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="15:15">
       <c r="O13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="15:15">
       <c r="O14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="15:15">
       <c r="O15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="15:15">
       <c r="O16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="15:15">
       <c r="O17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="15:15">
       <c r="O18" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="15:15">
       <c r="O19" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="15:15">
       <c r="O20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="15:15">
       <c r="O21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="15:15">
       <c r="O22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="15:15">
       <c r="O23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="15:15">
       <c r="O24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="15:15">
       <c r="O25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="15:15">
       <c r="O26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="15:15">
       <c r="O27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="15:15">
       <c r="O28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="15:15">
       <c r="O29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="15:15">
       <c r="O30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="15:15">
       <c r="O31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="15:15">
       <c r="O32" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="15:15">
       <c r="O33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="15:15">
       <c r="O34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="15:15">
       <c r="O35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="15:15">
       <c r="O36" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="15:15">
       <c r="O37" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="15:15">
       <c r="O38" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="15:15">
       <c r="O40" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="15:15">
       <c r="O41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="15:15">
       <c r="O42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="15:15">
       <c r="O43" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="15:15">
       <c r="O44" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="15:15">
       <c r="O45" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="15:15">
       <c r="O46" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="15:15">
       <c r="O48" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="15:15">
       <c r="O49" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="15:15">
       <c r="O50" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="15:15">
       <c r="O51" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="15:15">
       <c r="O52" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="15:15">
       <c r="O53" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="15:15">
       <c r="O54" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="15:15">
       <c r="O56" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" spans="15:15">
       <c r="O57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="15:15">
       <c r="O58" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="15:15">
       <c r="O59" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="15:15">
       <c r="O60" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="15:15">
       <c r="O61" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="15:15">
       <c r="O62" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="15:15">
       <c r="O64" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="15:15">
       <c r="O65" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="15:15">
       <c r="O66" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="15:15">
       <c r="O67" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="15:15">
       <c r="O68" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69" spans="15:15">
       <c r="O69" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="15:15">
       <c r="O70" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="15:15">
       <c r="O72" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="15:15">
       <c r="O73" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="15:15">
       <c r="O74" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="15:15">
       <c r="O75" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="15:15">
       <c r="O76" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77" spans="15:15">
       <c r="O77" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="78" spans="15:15">
       <c r="O78" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="80" spans="15:15">
       <c r="O80" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="81" spans="15:15">
       <c r="O81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" spans="15:15">
       <c r="O82" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="15:15">
       <c r="O83" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="15:15">
       <c r="O84" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="15:15">
       <c r="O85" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="86" spans="15:15">
       <c r="O86" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="15:15">
       <c r="O87" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="88" spans="15:15">
       <c r="O88" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="15:15">
       <c r="O89" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="15:15">
       <c r="O90" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91" spans="15:15">
       <c r="O91" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="15:15">
       <c r="O92" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="15:15">
       <c r="O93" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="15:15">
       <c r="O94" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="15:15">
       <c r="O95" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="15:15">
       <c r="O96" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="15:15">
       <c r="O97" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" spans="15:15">
       <c r="O98" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="99" spans="15:15">
       <c r="O99" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="100" spans="15:15">
       <c r="O100" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="101" spans="15:15">
       <c r="O101" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="102" spans="15:15">
       <c r="O102" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="103" spans="15:15">
       <c r="O103" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="15:15">
       <c r="O104" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="105" spans="15:15">
       <c r="O105" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="106" spans="15:15">
       <c r="O106" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="107" spans="15:15">
       <c r="O107" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="108" spans="15:15">
       <c r="O108" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" spans="15:15">
       <c r="O109" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="110" spans="15:15">
       <c r="O110" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="111" spans="15:15">
       <c r="O111" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" spans="15:15">
       <c r="O112" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="113" spans="15:15">
       <c r="O113" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114" spans="15:15">
       <c r="O114" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="115" spans="15:15">
       <c r="O115" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="116" spans="15:15">
       <c r="O116" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="117" spans="15:15">
       <c r="O117" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="118" spans="15:15">
       <c r="O118" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="119" spans="15:15">
       <c r="O119" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="120" spans="15:15">
       <c r="O120" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="121" spans="15:15">
       <c r="O121" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="122" spans="15:15">
       <c r="O122" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="123" spans="15:15">
       <c r="O123" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="124" spans="15:15">
       <c r="O124" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="125" spans="15:15">
       <c r="O125" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="126" spans="15:15">
       <c r="O126" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="127" spans="15:15">
       <c r="O127" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="128" spans="15:15">
       <c r="O128" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="129" spans="15:15">
       <c r="O129" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="130" spans="15:15">
       <c r="O130" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="131" spans="15:15">
       <c r="O131" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="132" spans="15:15">
       <c r="O132" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="133" spans="15:15">
       <c r="O133" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="134" spans="15:15">
       <c r="O134" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="135" spans="15:15">
       <c r="O135" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="136" spans="15:15">
       <c r="O136" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="137" spans="15:15">
       <c r="O137" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="138" spans="15:15">
       <c r="O138" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="139" spans="15:15">
       <c r="O139" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="140" spans="15:15">
       <c r="O140" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="141" spans="15:15">
       <c r="O141" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="142" spans="15:15">
       <c r="O142" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="143" spans="15:15">
       <c r="O143" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="144" spans="15:15">
       <c r="O144" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="145" spans="15:15">
       <c r="O145" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="146" spans="15:15">
       <c r="O146" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="147" spans="15:15">
       <c r="O147" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="148" spans="15:15">
       <c r="O148" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="149" spans="15:15">
       <c r="O149" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="150" spans="15:15">
       <c r="O150" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="151" spans="15:15">
       <c r="O151" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="152" spans="15:15">
       <c r="O152" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="153" spans="15:15">
       <c r="O153" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="154" spans="15:15">
       <c r="O154" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="155" spans="15:15">
       <c r="O155" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="156" spans="15:15">
       <c r="O156" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="157" spans="15:15">
       <c r="O157" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="158" spans="15:15">
       <c r="O158" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="159" spans="15:15">
       <c r="O159" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="160" spans="15:15">
       <c r="O160" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="161" spans="15:15">
       <c r="O161" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="162" spans="15:15">
       <c r="O162" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="163" spans="15:15">
       <c r="O163" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="164" spans="15:15">
       <c r="O164" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="165" spans="15:15">
       <c r="O165" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="166" spans="15:15">
       <c r="O166" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="167" spans="15:15">
       <c r="O167" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="168" spans="15:15">
       <c r="O168" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="169" spans="15:15">
       <c r="O169" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="170" spans="15:15">
       <c r="O170" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="171" spans="15:15">
       <c r="O171" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="172" spans="15:15">
       <c r="O172" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="173" spans="15:15">
       <c r="O173" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="174" spans="15:15">
       <c r="O174" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="175" spans="15:15">
       <c r="O175" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="176" spans="15:15">
       <c r="O176" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="177" spans="15:15">
       <c r="O177" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="178" spans="15:15">
       <c r="O178" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="179" spans="15:15">
       <c r="O179" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="180" spans="15:15">
       <c r="O180" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="181" spans="15:15">
       <c r="O181" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="182" spans="15:15">
       <c r="O182" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="183" spans="15:15">
       <c r="O183" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="184" spans="15:15">
       <c r="O184" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="185" spans="15:15">
       <c r="O185" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="186" spans="15:15">
       <c r="O186" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="187" spans="15:15">
       <c r="O187" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="188" spans="15:15">
       <c r="O188" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="189" spans="15:15">
       <c r="O189" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="190" spans="15:15">
       <c r="O190" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="191" spans="15:15">
       <c r="O191" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="192" spans="15:15">
       <c r="O192" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="193" spans="15:15">
       <c r="O193" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="194" spans="15:15">
       <c r="O194" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="195" spans="15:15">
       <c r="O195" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="196" spans="15:15">
       <c r="O196" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="197" spans="15:15">
       <c r="O197" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="198" spans="15:15">
       <c r="O198" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="199" spans="15:15">
       <c r="O199" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="200" spans="15:15">
       <c r="O200" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="201" spans="15:15">
       <c r="O201" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="202" spans="15:15">
       <c r="O202" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="203" spans="15:15">
       <c r="O203" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="204" spans="15:15">
       <c r="O204" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="205" spans="15:15">
       <c r="O205" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="206" spans="15:15">
       <c r="O206" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="207" spans="15:15">
       <c r="O207" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="208" spans="15:15">
       <c r="O208" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="209" spans="15:15">
       <c r="O209" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="210" spans="15:15">
       <c r="O210" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="211" spans="15:15">
       <c r="O211" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="212" spans="15:15">
       <c r="O212" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="213" spans="15:15">
       <c r="O213" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="214" spans="15:15">
       <c r="O214" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="215" spans="15:15">
       <c r="O215" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="216" spans="15:15">
       <c r="O216" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="217" spans="15:15">
       <c r="O217" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="218" spans="15:15">
       <c r="O218" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="219" spans="15:15">
       <c r="O219" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="220" spans="15:15">
       <c r="O220" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="221" spans="15:15">
       <c r="O221" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="222" spans="15:15">
       <c r="O222" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="223" spans="15:15">
       <c r="O223" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="224" spans="15:15">
       <c r="O224" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="225" spans="15:15">
       <c r="O225" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="226" spans="15:15">
       <c r="O226" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="227" spans="15:15">
       <c r="O227" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="228" spans="15:15">
       <c r="O228" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="229" spans="15:15">
       <c r="O229" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="230" spans="15:15">
       <c r="O230" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="231" spans="15:15">
       <c r="O231" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="232" spans="15:15">
       <c r="O232" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="233" spans="15:15">
       <c r="O233" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="234" spans="15:15">
       <c r="O234" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="235" spans="15:15">
       <c r="O235" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="236" spans="15:15">
       <c r="O236" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="237" spans="15:15">
       <c r="O237" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="238" spans="15:15">
       <c r="O238" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="239" spans="15:15">
       <c r="O239" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="240" spans="15:15">
       <c r="O240" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="241" spans="15:15">
       <c r="O241" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="242" spans="15:15">
       <c r="O242" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="243" spans="15:15">
       <c r="O243" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="244" spans="15:15">
       <c r="O244" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="245" spans="15:15">
       <c r="O245" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="246" spans="15:15">
       <c r="O246" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="247" spans="15:15">
       <c r="O247" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="248" spans="15:15">
       <c r="O248" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="249" spans="15:15">
       <c r="O249" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="250" spans="15:15">
       <c r="O250" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="251" spans="15:15">
       <c r="O251" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="252" spans="15:15">
       <c r="O252" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="253" spans="15:15">
       <c r="O253" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="254" spans="15:15">
       <c r="O254" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="255" spans="15:15">
       <c r="O255" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="256" spans="15:15">
       <c r="O256" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="257" spans="15:15">
       <c r="O257" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="258" spans="15:15">
       <c r="O258" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="259" spans="15:15">
       <c r="O259" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="260" spans="15:15">
       <c r="O260" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="261" spans="15:15">
       <c r="O261" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="262" spans="15:15">
       <c r="O262" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="263" spans="15:15">
       <c r="O263" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="264" spans="15:15">
       <c r="O264" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="265" spans="15:15">
       <c r="O265" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="266" spans="15:15">
       <c r="O266" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="267" spans="15:15">
       <c r="O267" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="268" spans="15:15">
       <c r="O268" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="269" spans="15:15">
       <c r="O269" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="270" spans="15:15">
       <c r="O270" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="271" spans="15:15">
       <c r="O271" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="272" spans="15:15">
       <c r="O272" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="273" spans="15:15">
       <c r="O273" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="274" spans="15:15">
       <c r="O274" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="275" spans="15:15">
       <c r="O275" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="276" spans="15:15">
       <c r="O276" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="277" spans="15:15">
       <c r="O277" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="278" spans="15:15">
       <c r="O278" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="279" spans="15:15">
       <c r="O279" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="280" spans="15:15">
       <c r="O280" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="281" spans="15:15">
       <c r="O281" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="282" spans="15:15">
       <c r="O282" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="283" spans="15:15">
       <c r="O283" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="284" spans="15:15">
       <c r="O284" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="285" spans="15:15">
       <c r="O285" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="286" spans="15:15">
       <c r="O286" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="287" spans="15:15">
       <c r="O287" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="288" spans="15:15">
       <c r="O288" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="289" spans="15:15">
       <c r="O289" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000043/metadata_template_ERC000043.xlsx
+++ b/templates/ERC000043/metadata_template_ERC000043.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="597">
   <si>
     <t>alias</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2357,7 +2360,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2401,7 +2404,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2428,7 +2431,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3145,6 +3148,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3169,27 +3177,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3212,122 +3220,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3354,144 +3362,144 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -3514,1447 +3522,1447 @@
   <sheetData>
     <row r="1" spans="15:15">
       <c r="O1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="15:15">
       <c r="O2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="15:15">
       <c r="O3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="15:15">
       <c r="O4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="15:15">
       <c r="O5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="15:15">
       <c r="O6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="15:15">
       <c r="O7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="15:15">
       <c r="O8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="15:15">
       <c r="O9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="15:15">
       <c r="O10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="15:15">
       <c r="O11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="15:15">
       <c r="O12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="15:15">
       <c r="O13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="15:15">
       <c r="O14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="15:15">
       <c r="O15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="15:15">
       <c r="O16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="15:15">
       <c r="O17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="15:15">
       <c r="O18" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="15:15">
       <c r="O19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="15:15">
       <c r="O20" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="15:15">
       <c r="O21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="15:15">
       <c r="O22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="15:15">
       <c r="O23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="15:15">
       <c r="O24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="15:15">
       <c r="O25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="15:15">
       <c r="O26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="15:15">
       <c r="O27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="15:15">
       <c r="O28" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="15:15">
       <c r="O29" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="15:15">
       <c r="O30" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="15:15">
       <c r="O31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="15:15">
       <c r="O32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="15:15">
       <c r="O33" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="15:15">
       <c r="O34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="15:15">
       <c r="O35" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="15:15">
       <c r="O36" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="15:15">
       <c r="O37" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="15:15">
       <c r="O38" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="15:15">
       <c r="O40" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="15:15">
       <c r="O41" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="15:15">
       <c r="O42" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="15:15">
       <c r="O43" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="15:15">
       <c r="O44" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="15:15">
       <c r="O45" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="15:15">
       <c r="O46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="15:15">
       <c r="O48" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="15:15">
       <c r="O49" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="15:15">
       <c r="O50" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="15:15">
       <c r="O51" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="15:15">
       <c r="O52" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="15:15">
       <c r="O53" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="15:15">
       <c r="O54" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56" spans="15:15">
       <c r="O56" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="15:15">
       <c r="O57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="15:15">
       <c r="O58" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="15:15">
       <c r="O59" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="15:15">
       <c r="O60" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="15:15">
       <c r="O61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="15:15">
       <c r="O62" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="15:15">
       <c r="O64" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="15:15">
       <c r="O65" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="15:15">
       <c r="O66" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="15:15">
       <c r="O67" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="15:15">
       <c r="O68" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="15:15">
       <c r="O69" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="15:15">
       <c r="O70" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="15:15">
       <c r="O72" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="15:15">
       <c r="O73" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="15:15">
       <c r="O74" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" spans="15:15">
       <c r="O75" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76" spans="15:15">
       <c r="O76" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="15:15">
       <c r="O77" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" spans="15:15">
       <c r="O78" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="80" spans="15:15">
       <c r="O80" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81" spans="15:15">
       <c r="O81" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="82" spans="15:15">
       <c r="O82" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="83" spans="15:15">
       <c r="O83" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="84" spans="15:15">
       <c r="O84" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="85" spans="15:15">
       <c r="O85" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86" spans="15:15">
       <c r="O86" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="87" spans="15:15">
       <c r="O87" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="88" spans="15:15">
       <c r="O88" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="89" spans="15:15">
       <c r="O89" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="90" spans="15:15">
       <c r="O90" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="91" spans="15:15">
       <c r="O91" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="92" spans="15:15">
       <c r="O92" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="15:15">
       <c r="O93" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94" spans="15:15">
       <c r="O94" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="95" spans="15:15">
       <c r="O95" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="15:15">
       <c r="O96" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="97" spans="15:15">
       <c r="O97" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98" spans="15:15">
       <c r="O98" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="99" spans="15:15">
       <c r="O99" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="100" spans="15:15">
       <c r="O100" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="101" spans="15:15">
       <c r="O101" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="15:15">
       <c r="O102" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="103" spans="15:15">
       <c r="O103" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104" spans="15:15">
       <c r="O104" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="15:15">
       <c r="O105" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="106" spans="15:15">
       <c r="O106" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="107" spans="15:15">
       <c r="O107" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="108" spans="15:15">
       <c r="O108" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" spans="15:15">
       <c r="O109" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="110" spans="15:15">
       <c r="O110" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="111" spans="15:15">
       <c r="O111" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="112" spans="15:15">
       <c r="O112" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113" spans="15:15">
       <c r="O113" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="114" spans="15:15">
       <c r="O114" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="115" spans="15:15">
       <c r="O115" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="116" spans="15:15">
       <c r="O116" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="117" spans="15:15">
       <c r="O117" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="118" spans="15:15">
       <c r="O118" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="119" spans="15:15">
       <c r="O119" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="120" spans="15:15">
       <c r="O120" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="121" spans="15:15">
       <c r="O121" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="122" spans="15:15">
       <c r="O122" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="123" spans="15:15">
       <c r="O123" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="124" spans="15:15">
       <c r="O124" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="125" spans="15:15">
       <c r="O125" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="126" spans="15:15">
       <c r="O126" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="127" spans="15:15">
       <c r="O127" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="128" spans="15:15">
       <c r="O128" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="129" spans="15:15">
       <c r="O129" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="130" spans="15:15">
       <c r="O130" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="131" spans="15:15">
       <c r="O131" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="132" spans="15:15">
       <c r="O132" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="133" spans="15:15">
       <c r="O133" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="134" spans="15:15">
       <c r="O134" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="135" spans="15:15">
       <c r="O135" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="136" spans="15:15">
       <c r="O136" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="137" spans="15:15">
       <c r="O137" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="138" spans="15:15">
       <c r="O138" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="139" spans="15:15">
       <c r="O139" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="140" spans="15:15">
       <c r="O140" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="141" spans="15:15">
       <c r="O141" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="142" spans="15:15">
       <c r="O142" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="143" spans="15:15">
       <c r="O143" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="144" spans="15:15">
       <c r="O144" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="145" spans="15:15">
       <c r="O145" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="146" spans="15:15">
       <c r="O146" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="147" spans="15:15">
       <c r="O147" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="148" spans="15:15">
       <c r="O148" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="149" spans="15:15">
       <c r="O149" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="150" spans="15:15">
       <c r="O150" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="151" spans="15:15">
       <c r="O151" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="152" spans="15:15">
       <c r="O152" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="153" spans="15:15">
       <c r="O153" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="154" spans="15:15">
       <c r="O154" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="155" spans="15:15">
       <c r="O155" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="156" spans="15:15">
       <c r="O156" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="157" spans="15:15">
       <c r="O157" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="158" spans="15:15">
       <c r="O158" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="159" spans="15:15">
       <c r="O159" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="160" spans="15:15">
       <c r="O160" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="161" spans="15:15">
       <c r="O161" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="162" spans="15:15">
       <c r="O162" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="163" spans="15:15">
       <c r="O163" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="164" spans="15:15">
       <c r="O164" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="165" spans="15:15">
       <c r="O165" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="166" spans="15:15">
       <c r="O166" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="167" spans="15:15">
       <c r="O167" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="168" spans="15:15">
       <c r="O168" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="169" spans="15:15">
       <c r="O169" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="170" spans="15:15">
       <c r="O170" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="171" spans="15:15">
       <c r="O171" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="172" spans="15:15">
       <c r="O172" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="173" spans="15:15">
       <c r="O173" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="174" spans="15:15">
       <c r="O174" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="175" spans="15:15">
       <c r="O175" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="176" spans="15:15">
       <c r="O176" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="177" spans="15:15">
       <c r="O177" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="178" spans="15:15">
       <c r="O178" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="179" spans="15:15">
       <c r="O179" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="180" spans="15:15">
       <c r="O180" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="181" spans="15:15">
       <c r="O181" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="182" spans="15:15">
       <c r="O182" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="183" spans="15:15">
       <c r="O183" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="184" spans="15:15">
       <c r="O184" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="185" spans="15:15">
       <c r="O185" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="186" spans="15:15">
       <c r="O186" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="187" spans="15:15">
       <c r="O187" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="188" spans="15:15">
       <c r="O188" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="189" spans="15:15">
       <c r="O189" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="190" spans="15:15">
       <c r="O190" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="191" spans="15:15">
       <c r="O191" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="192" spans="15:15">
       <c r="O192" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="193" spans="15:15">
       <c r="O193" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="194" spans="15:15">
       <c r="O194" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="195" spans="15:15">
       <c r="O195" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="196" spans="15:15">
       <c r="O196" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="197" spans="15:15">
       <c r="O197" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="198" spans="15:15">
       <c r="O198" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="199" spans="15:15">
       <c r="O199" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="200" spans="15:15">
       <c r="O200" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="201" spans="15:15">
       <c r="O201" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="202" spans="15:15">
       <c r="O202" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="203" spans="15:15">
       <c r="O203" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="204" spans="15:15">
       <c r="O204" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="205" spans="15:15">
       <c r="O205" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="206" spans="15:15">
       <c r="O206" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="207" spans="15:15">
       <c r="O207" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="208" spans="15:15">
       <c r="O208" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="209" spans="15:15">
       <c r="O209" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="210" spans="15:15">
       <c r="O210" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="211" spans="15:15">
       <c r="O211" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="212" spans="15:15">
       <c r="O212" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="213" spans="15:15">
       <c r="O213" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="214" spans="15:15">
       <c r="O214" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="215" spans="15:15">
       <c r="O215" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="216" spans="15:15">
       <c r="O216" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="217" spans="15:15">
       <c r="O217" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="218" spans="15:15">
       <c r="O218" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="219" spans="15:15">
       <c r="O219" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="220" spans="15:15">
       <c r="O220" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="221" spans="15:15">
       <c r="O221" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="222" spans="15:15">
       <c r="O222" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="223" spans="15:15">
       <c r="O223" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="224" spans="15:15">
       <c r="O224" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="225" spans="15:15">
       <c r="O225" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="226" spans="15:15">
       <c r="O226" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="227" spans="15:15">
       <c r="O227" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="228" spans="15:15">
       <c r="O228" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="229" spans="15:15">
       <c r="O229" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="230" spans="15:15">
       <c r="O230" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="231" spans="15:15">
       <c r="O231" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="232" spans="15:15">
       <c r="O232" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="233" spans="15:15">
       <c r="O233" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="234" spans="15:15">
       <c r="O234" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="235" spans="15:15">
       <c r="O235" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="236" spans="15:15">
       <c r="O236" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="237" spans="15:15">
       <c r="O237" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="238" spans="15:15">
       <c r="O238" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="239" spans="15:15">
       <c r="O239" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="240" spans="15:15">
       <c r="O240" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="241" spans="15:15">
       <c r="O241" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="242" spans="15:15">
       <c r="O242" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="243" spans="15:15">
       <c r="O243" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="244" spans="15:15">
       <c r="O244" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="245" spans="15:15">
       <c r="O245" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="246" spans="15:15">
       <c r="O246" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="247" spans="15:15">
       <c r="O247" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="248" spans="15:15">
       <c r="O248" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="249" spans="15:15">
       <c r="O249" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="250" spans="15:15">
       <c r="O250" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="251" spans="15:15">
       <c r="O251" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="252" spans="15:15">
       <c r="O252" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="253" spans="15:15">
       <c r="O253" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="254" spans="15:15">
       <c r="O254" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="255" spans="15:15">
       <c r="O255" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="256" spans="15:15">
       <c r="O256" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="257" spans="15:15">
       <c r="O257" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="258" spans="15:15">
       <c r="O258" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="259" spans="15:15">
       <c r="O259" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="260" spans="15:15">
       <c r="O260" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="261" spans="15:15">
       <c r="O261" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="262" spans="15:15">
       <c r="O262" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="263" spans="15:15">
       <c r="O263" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="264" spans="15:15">
       <c r="O264" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="265" spans="15:15">
       <c r="O265" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="266" spans="15:15">
       <c r="O266" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="267" spans="15:15">
       <c r="O267" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="268" spans="15:15">
       <c r="O268" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="269" spans="15:15">
       <c r="O269" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="270" spans="15:15">
       <c r="O270" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="271" spans="15:15">
       <c r="O271" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="272" spans="15:15">
       <c r="O272" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="273" spans="15:15">
       <c r="O273" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="274" spans="15:15">
       <c r="O274" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="275" spans="15:15">
       <c r="O275" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="276" spans="15:15">
       <c r="O276" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="277" spans="15:15">
       <c r="O277" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="278" spans="15:15">
       <c r="O278" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="279" spans="15:15">
       <c r="O279" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="280" spans="15:15">
       <c r="O280" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="281" spans="15:15">
       <c r="O281" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="282" spans="15:15">
       <c r="O282" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="283" spans="15:15">
       <c r="O283" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="284" spans="15:15">
       <c r="O284" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="285" spans="15:15">
       <c r="O285" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="286" spans="15:15">
       <c r="O286" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="287" spans="15:15">
       <c r="O287" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="288" spans="15:15">
       <c r="O288" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="289" spans="15:15">
       <c r="O289" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000043/metadata_template_ERC000043.xlsx
+++ b/templates/ERC000043/metadata_template_ERC000043.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="598">
   <si>
     <t>alias</t>
   </si>
@@ -718,6 +718,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2360,7 +2363,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2404,7 +2407,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2431,7 +2434,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3153,6 +3156,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3177,27 +3185,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3220,122 +3228,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3362,144 +3370,144 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -3522,1447 +3530,1447 @@
   <sheetData>
     <row r="1" spans="15:15">
       <c r="O1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="15:15">
       <c r="O2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="15:15">
       <c r="O3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="15:15">
       <c r="O4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="15:15">
       <c r="O5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="15:15">
       <c r="O6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="15:15">
       <c r="O7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="15:15">
       <c r="O8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="15:15">
       <c r="O9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="15:15">
       <c r="O10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="15:15">
       <c r="O11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="15:15">
       <c r="O12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="15:15">
       <c r="O13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="15:15">
       <c r="O14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="15:15">
       <c r="O15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="15:15">
       <c r="O16" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="15:15">
       <c r="O17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="15:15">
       <c r="O18" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="15:15">
       <c r="O19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="15:15">
       <c r="O20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="15:15">
       <c r="O21" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="15:15">
       <c r="O22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="15:15">
       <c r="O23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="15:15">
       <c r="O24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="15:15">
       <c r="O25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="15:15">
       <c r="O26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="15:15">
       <c r="O27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="15:15">
       <c r="O28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="15:15">
       <c r="O29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="15:15">
       <c r="O30" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="15:15">
       <c r="O31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="15:15">
       <c r="O32" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="15:15">
       <c r="O33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="15:15">
       <c r="O34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="15:15">
       <c r="O35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="15:15">
       <c r="O36" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="15:15">
       <c r="O37" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="15:15">
       <c r="O38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="15:15">
       <c r="O40" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="15:15">
       <c r="O41" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="15:15">
       <c r="O42" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="15:15">
       <c r="O43" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="15:15">
       <c r="O44" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="15:15">
       <c r="O45" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="15:15">
       <c r="O46" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="15:15">
       <c r="O48" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" spans="15:15">
       <c r="O49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="15:15">
       <c r="O50" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="15:15">
       <c r="O51" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="15:15">
       <c r="O52" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="15:15">
       <c r="O53" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="15:15">
       <c r="O54" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="15:15">
       <c r="O56" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="15:15">
       <c r="O57" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="15:15">
       <c r="O58" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="15:15">
       <c r="O59" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="15:15">
       <c r="O60" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61" spans="15:15">
       <c r="O61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="15:15">
       <c r="O62" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64" spans="15:15">
       <c r="O64" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="15:15">
       <c r="O65" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="15:15">
       <c r="O66" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="67" spans="15:15">
       <c r="O67" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="15:15">
       <c r="O68" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="15:15">
       <c r="O69" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="15:15">
       <c r="O70" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="15:15">
       <c r="O72" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="15:15">
       <c r="O73" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="15:15">
       <c r="O74" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="75" spans="15:15">
       <c r="O75" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="76" spans="15:15">
       <c r="O76" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="77" spans="15:15">
       <c r="O77" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="15:15">
       <c r="O78" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="80" spans="15:15">
       <c r="O80" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81" spans="15:15">
       <c r="O81" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="82" spans="15:15">
       <c r="O82" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="83" spans="15:15">
       <c r="O83" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="84" spans="15:15">
       <c r="O84" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="85" spans="15:15">
       <c r="O85" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="86" spans="15:15">
       <c r="O86" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="87" spans="15:15">
       <c r="O87" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="88" spans="15:15">
       <c r="O88" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="89" spans="15:15">
       <c r="O89" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="90" spans="15:15">
       <c r="O90" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="15:15">
       <c r="O91" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="92" spans="15:15">
       <c r="O92" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="93" spans="15:15">
       <c r="O93" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="94" spans="15:15">
       <c r="O94" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="95" spans="15:15">
       <c r="O95" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="96" spans="15:15">
       <c r="O96" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97" spans="15:15">
       <c r="O97" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="98" spans="15:15">
       <c r="O98" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="99" spans="15:15">
       <c r="O99" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="100" spans="15:15">
       <c r="O100" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="101" spans="15:15">
       <c r="O101" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="15:15">
       <c r="O102" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="103" spans="15:15">
       <c r="O103" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="104" spans="15:15">
       <c r="O104" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="105" spans="15:15">
       <c r="O105" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="15:15">
       <c r="O106" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="107" spans="15:15">
       <c r="O107" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="108" spans="15:15">
       <c r="O108" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="109" spans="15:15">
       <c r="O109" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="15:15">
       <c r="O110" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="111" spans="15:15">
       <c r="O111" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="15:15">
       <c r="O112" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="113" spans="15:15">
       <c r="O113" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="114" spans="15:15">
       <c r="O114" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="115" spans="15:15">
       <c r="O115" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="116" spans="15:15">
       <c r="O116" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="117" spans="15:15">
       <c r="O117" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="118" spans="15:15">
       <c r="O118" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="119" spans="15:15">
       <c r="O119" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="120" spans="15:15">
       <c r="O120" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="121" spans="15:15">
       <c r="O121" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="122" spans="15:15">
       <c r="O122" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="123" spans="15:15">
       <c r="O123" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="124" spans="15:15">
       <c r="O124" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="125" spans="15:15">
       <c r="O125" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="126" spans="15:15">
       <c r="O126" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="127" spans="15:15">
       <c r="O127" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="128" spans="15:15">
       <c r="O128" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="129" spans="15:15">
       <c r="O129" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="130" spans="15:15">
       <c r="O130" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="131" spans="15:15">
       <c r="O131" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="132" spans="15:15">
       <c r="O132" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="133" spans="15:15">
       <c r="O133" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="134" spans="15:15">
       <c r="O134" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="135" spans="15:15">
       <c r="O135" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="136" spans="15:15">
       <c r="O136" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="137" spans="15:15">
       <c r="O137" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="138" spans="15:15">
       <c r="O138" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="139" spans="15:15">
       <c r="O139" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="140" spans="15:15">
       <c r="O140" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="141" spans="15:15">
       <c r="O141" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="142" spans="15:15">
       <c r="O142" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="143" spans="15:15">
       <c r="O143" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="144" spans="15:15">
       <c r="O144" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="145" spans="15:15">
       <c r="O145" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="146" spans="15:15">
       <c r="O146" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="147" spans="15:15">
       <c r="O147" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="148" spans="15:15">
       <c r="O148" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="149" spans="15:15">
       <c r="O149" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="150" spans="15:15">
       <c r="O150" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="151" spans="15:15">
       <c r="O151" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="152" spans="15:15">
       <c r="O152" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="153" spans="15:15">
       <c r="O153" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="154" spans="15:15">
       <c r="O154" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="155" spans="15:15">
       <c r="O155" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="156" spans="15:15">
       <c r="O156" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="157" spans="15:15">
       <c r="O157" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="158" spans="15:15">
       <c r="O158" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="159" spans="15:15">
       <c r="O159" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="160" spans="15:15">
       <c r="O160" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="161" spans="15:15">
       <c r="O161" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="162" spans="15:15">
       <c r="O162" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="163" spans="15:15">
       <c r="O163" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="164" spans="15:15">
       <c r="O164" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="165" spans="15:15">
       <c r="O165" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="166" spans="15:15">
       <c r="O166" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="167" spans="15:15">
       <c r="O167" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="168" spans="15:15">
       <c r="O168" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="169" spans="15:15">
       <c r="O169" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="170" spans="15:15">
       <c r="O170" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="171" spans="15:15">
       <c r="O171" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="172" spans="15:15">
       <c r="O172" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="173" spans="15:15">
       <c r="O173" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="174" spans="15:15">
       <c r="O174" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="175" spans="15:15">
       <c r="O175" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="176" spans="15:15">
       <c r="O176" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="177" spans="15:15">
       <c r="O177" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="178" spans="15:15">
       <c r="O178" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="179" spans="15:15">
       <c r="O179" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="180" spans="15:15">
       <c r="O180" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="181" spans="15:15">
       <c r="O181" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="182" spans="15:15">
       <c r="O182" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="183" spans="15:15">
       <c r="O183" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="184" spans="15:15">
       <c r="O184" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="185" spans="15:15">
       <c r="O185" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="186" spans="15:15">
       <c r="O186" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="187" spans="15:15">
       <c r="O187" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="188" spans="15:15">
       <c r="O188" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="189" spans="15:15">
       <c r="O189" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="190" spans="15:15">
       <c r="O190" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="191" spans="15:15">
       <c r="O191" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="192" spans="15:15">
       <c r="O192" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="193" spans="15:15">
       <c r="O193" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="194" spans="15:15">
       <c r="O194" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="195" spans="15:15">
       <c r="O195" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="196" spans="15:15">
       <c r="O196" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="197" spans="15:15">
       <c r="O197" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="198" spans="15:15">
       <c r="O198" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="199" spans="15:15">
       <c r="O199" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="200" spans="15:15">
       <c r="O200" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="201" spans="15:15">
       <c r="O201" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="202" spans="15:15">
       <c r="O202" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="203" spans="15:15">
       <c r="O203" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="204" spans="15:15">
       <c r="O204" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="205" spans="15:15">
       <c r="O205" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="206" spans="15:15">
       <c r="O206" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="207" spans="15:15">
       <c r="O207" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="208" spans="15:15">
       <c r="O208" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="209" spans="15:15">
       <c r="O209" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="210" spans="15:15">
       <c r="O210" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="211" spans="15:15">
       <c r="O211" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="212" spans="15:15">
       <c r="O212" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="213" spans="15:15">
       <c r="O213" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="214" spans="15:15">
       <c r="O214" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="215" spans="15:15">
       <c r="O215" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="216" spans="15:15">
       <c r="O216" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="217" spans="15:15">
       <c r="O217" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="218" spans="15:15">
       <c r="O218" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="219" spans="15:15">
       <c r="O219" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="220" spans="15:15">
       <c r="O220" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="221" spans="15:15">
       <c r="O221" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="222" spans="15:15">
       <c r="O222" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="223" spans="15:15">
       <c r="O223" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="224" spans="15:15">
       <c r="O224" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="225" spans="15:15">
       <c r="O225" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="226" spans="15:15">
       <c r="O226" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="227" spans="15:15">
       <c r="O227" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="228" spans="15:15">
       <c r="O228" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="229" spans="15:15">
       <c r="O229" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="230" spans="15:15">
       <c r="O230" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="231" spans="15:15">
       <c r="O231" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="232" spans="15:15">
       <c r="O232" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="233" spans="15:15">
       <c r="O233" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="234" spans="15:15">
       <c r="O234" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="235" spans="15:15">
       <c r="O235" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="236" spans="15:15">
       <c r="O236" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="237" spans="15:15">
       <c r="O237" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="238" spans="15:15">
       <c r="O238" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="239" spans="15:15">
       <c r="O239" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="240" spans="15:15">
       <c r="O240" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="241" spans="15:15">
       <c r="O241" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="242" spans="15:15">
       <c r="O242" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="243" spans="15:15">
       <c r="O243" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="244" spans="15:15">
       <c r="O244" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="245" spans="15:15">
       <c r="O245" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="246" spans="15:15">
       <c r="O246" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="247" spans="15:15">
       <c r="O247" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="248" spans="15:15">
       <c r="O248" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="249" spans="15:15">
       <c r="O249" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="250" spans="15:15">
       <c r="O250" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="251" spans="15:15">
       <c r="O251" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="252" spans="15:15">
       <c r="O252" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="253" spans="15:15">
       <c r="O253" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="254" spans="15:15">
       <c r="O254" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="255" spans="15:15">
       <c r="O255" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="256" spans="15:15">
       <c r="O256" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="257" spans="15:15">
       <c r="O257" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="258" spans="15:15">
       <c r="O258" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="259" spans="15:15">
       <c r="O259" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="260" spans="15:15">
       <c r="O260" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="261" spans="15:15">
       <c r="O261" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="262" spans="15:15">
       <c r="O262" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="263" spans="15:15">
       <c r="O263" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="264" spans="15:15">
       <c r="O264" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="265" spans="15:15">
       <c r="O265" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="266" spans="15:15">
       <c r="O266" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="267" spans="15:15">
       <c r="O267" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="268" spans="15:15">
       <c r="O268" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="269" spans="15:15">
       <c r="O269" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="270" spans="15:15">
       <c r="O270" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="271" spans="15:15">
       <c r="O271" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="272" spans="15:15">
       <c r="O272" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="273" spans="15:15">
       <c r="O273" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="274" spans="15:15">
       <c r="O274" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="275" spans="15:15">
       <c r="O275" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="276" spans="15:15">
       <c r="O276" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="277" spans="15:15">
       <c r="O277" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="278" spans="15:15">
       <c r="O278" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="279" spans="15:15">
       <c r="O279" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="280" spans="15:15">
       <c r="O280" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="281" spans="15:15">
       <c r="O281" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="282" spans="15:15">
       <c r="O282" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="283" spans="15:15">
       <c r="O283" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="284" spans="15:15">
       <c r="O284" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="285" spans="15:15">
       <c r="O285" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="286" spans="15:15">
       <c r="O286" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="287" spans="15:15">
       <c r="O287" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="288" spans="15:15">
       <c r="O288" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="289" spans="15:15">
       <c r="O289" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000043/metadata_template_ERC000043.xlsx
+++ b/templates/ERC000043/metadata_template_ERC000043.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="599">
   <si>
     <t>alias</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2363,7 +2366,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2407,7 +2410,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2434,7 +2437,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3161,6 +3164,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3185,27 +3193,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3228,122 +3236,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3370,144 +3378,144 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -3530,1447 +3538,1447 @@
   <sheetData>
     <row r="1" spans="15:15">
       <c r="O1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="15:15">
       <c r="O2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="15:15">
       <c r="O3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="15:15">
       <c r="O4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="15:15">
       <c r="O5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="15:15">
       <c r="O6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="15:15">
       <c r="O7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="15:15">
       <c r="O8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="15:15">
       <c r="O9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="15:15">
       <c r="O10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="15:15">
       <c r="O11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="15:15">
       <c r="O12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="15:15">
       <c r="O13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="15:15">
       <c r="O14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="15:15">
       <c r="O15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="15:15">
       <c r="O16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="15:15">
       <c r="O17" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="15:15">
       <c r="O18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="15:15">
       <c r="O19" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="15:15">
       <c r="O20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="15:15">
       <c r="O21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="15:15">
       <c r="O22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="15:15">
       <c r="O23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="15:15">
       <c r="O24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="15:15">
       <c r="O25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="15:15">
       <c r="O26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="15:15">
       <c r="O27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="15:15">
       <c r="O28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="15:15">
       <c r="O29" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="15:15">
       <c r="O30" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="15:15">
       <c r="O31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="15:15">
       <c r="O32" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="15:15">
       <c r="O33" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="15:15">
       <c r="O34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" spans="15:15">
       <c r="O35" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="15:15">
       <c r="O36" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="15:15">
       <c r="O37" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="15:15">
       <c r="O38" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="15:15">
       <c r="O40" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="15:15">
       <c r="O41" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="15:15">
       <c r="O42" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="15:15">
       <c r="O43" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="15:15">
       <c r="O44" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="15:15">
       <c r="O45" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="46" spans="15:15">
       <c r="O46" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="15:15">
       <c r="O48" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49" spans="15:15">
       <c r="O49" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="15:15">
       <c r="O50" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51" spans="15:15">
       <c r="O51" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="15:15">
       <c r="O52" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="15:15">
       <c r="O53" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="15:15">
       <c r="O54" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="56" spans="15:15">
       <c r="O56" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" spans="15:15">
       <c r="O57" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="15:15">
       <c r="O58" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="15:15">
       <c r="O59" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60" spans="15:15">
       <c r="O60" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61" spans="15:15">
       <c r="O61" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="15:15">
       <c r="O62" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64" spans="15:15">
       <c r="O64" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="65" spans="15:15">
       <c r="O65" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66" spans="15:15">
       <c r="O66" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="15:15">
       <c r="O67" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" spans="15:15">
       <c r="O68" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="15:15">
       <c r="O69" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="70" spans="15:15">
       <c r="O70" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="72" spans="15:15">
       <c r="O72" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="73" spans="15:15">
       <c r="O73" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="15:15">
       <c r="O74" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="15:15">
       <c r="O75" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="76" spans="15:15">
       <c r="O76" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="15:15">
       <c r="O77" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="78" spans="15:15">
       <c r="O78" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="15:15">
       <c r="O80" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="81" spans="15:15">
       <c r="O81" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="82" spans="15:15">
       <c r="O82" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="83" spans="15:15">
       <c r="O83" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="84" spans="15:15">
       <c r="O84" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="85" spans="15:15">
       <c r="O85" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="86" spans="15:15">
       <c r="O86" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="87" spans="15:15">
       <c r="O87" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="88" spans="15:15">
       <c r="O88" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="89" spans="15:15">
       <c r="O89" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="90" spans="15:15">
       <c r="O90" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="91" spans="15:15">
       <c r="O91" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92" spans="15:15">
       <c r="O92" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="93" spans="15:15">
       <c r="O93" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="94" spans="15:15">
       <c r="O94" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="95" spans="15:15">
       <c r="O95" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96" spans="15:15">
       <c r="O96" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="97" spans="15:15">
       <c r="O97" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="98" spans="15:15">
       <c r="O98" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="99" spans="15:15">
       <c r="O99" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="100" spans="15:15">
       <c r="O100" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="101" spans="15:15">
       <c r="O101" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="102" spans="15:15">
       <c r="O102" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="103" spans="15:15">
       <c r="O103" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="104" spans="15:15">
       <c r="O104" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="105" spans="15:15">
       <c r="O105" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="106" spans="15:15">
       <c r="O106" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107" spans="15:15">
       <c r="O107" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="108" spans="15:15">
       <c r="O108" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="109" spans="15:15">
       <c r="O109" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="110" spans="15:15">
       <c r="O110" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111" spans="15:15">
       <c r="O111" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112" spans="15:15">
       <c r="O112" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="113" spans="15:15">
       <c r="O113" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="114" spans="15:15">
       <c r="O114" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="115" spans="15:15">
       <c r="O115" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="116" spans="15:15">
       <c r="O116" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="117" spans="15:15">
       <c r="O117" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="118" spans="15:15">
       <c r="O118" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="119" spans="15:15">
       <c r="O119" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="120" spans="15:15">
       <c r="O120" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="121" spans="15:15">
       <c r="O121" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="122" spans="15:15">
       <c r="O122" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="123" spans="15:15">
       <c r="O123" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="124" spans="15:15">
       <c r="O124" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="125" spans="15:15">
       <c r="O125" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="126" spans="15:15">
       <c r="O126" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="127" spans="15:15">
       <c r="O127" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="128" spans="15:15">
       <c r="O128" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="129" spans="15:15">
       <c r="O129" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="130" spans="15:15">
       <c r="O130" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="131" spans="15:15">
       <c r="O131" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="132" spans="15:15">
       <c r="O132" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="133" spans="15:15">
       <c r="O133" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="134" spans="15:15">
       <c r="O134" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="135" spans="15:15">
       <c r="O135" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="136" spans="15:15">
       <c r="O136" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="137" spans="15:15">
       <c r="O137" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="138" spans="15:15">
       <c r="O138" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="139" spans="15:15">
       <c r="O139" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="140" spans="15:15">
       <c r="O140" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="141" spans="15:15">
       <c r="O141" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="142" spans="15:15">
       <c r="O142" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="143" spans="15:15">
       <c r="O143" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="144" spans="15:15">
       <c r="O144" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="145" spans="15:15">
       <c r="O145" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="146" spans="15:15">
       <c r="O146" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="147" spans="15:15">
       <c r="O147" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="148" spans="15:15">
       <c r="O148" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="149" spans="15:15">
       <c r="O149" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="150" spans="15:15">
       <c r="O150" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="151" spans="15:15">
       <c r="O151" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="152" spans="15:15">
       <c r="O152" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="153" spans="15:15">
       <c r="O153" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="154" spans="15:15">
       <c r="O154" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="155" spans="15:15">
       <c r="O155" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="156" spans="15:15">
       <c r="O156" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="157" spans="15:15">
       <c r="O157" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="158" spans="15:15">
       <c r="O158" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="159" spans="15:15">
       <c r="O159" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="160" spans="15:15">
       <c r="O160" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="161" spans="15:15">
       <c r="O161" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="162" spans="15:15">
       <c r="O162" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="163" spans="15:15">
       <c r="O163" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="164" spans="15:15">
       <c r="O164" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="165" spans="15:15">
       <c r="O165" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="166" spans="15:15">
       <c r="O166" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="167" spans="15:15">
       <c r="O167" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="168" spans="15:15">
       <c r="O168" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="169" spans="15:15">
       <c r="O169" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="170" spans="15:15">
       <c r="O170" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="171" spans="15:15">
       <c r="O171" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="172" spans="15:15">
       <c r="O172" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="173" spans="15:15">
       <c r="O173" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="174" spans="15:15">
       <c r="O174" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="175" spans="15:15">
       <c r="O175" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="176" spans="15:15">
       <c r="O176" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="177" spans="15:15">
       <c r="O177" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="178" spans="15:15">
       <c r="O178" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="179" spans="15:15">
       <c r="O179" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="180" spans="15:15">
       <c r="O180" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="181" spans="15:15">
       <c r="O181" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="182" spans="15:15">
       <c r="O182" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="183" spans="15:15">
       <c r="O183" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="184" spans="15:15">
       <c r="O184" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="185" spans="15:15">
       <c r="O185" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="186" spans="15:15">
       <c r="O186" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="187" spans="15:15">
       <c r="O187" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="188" spans="15:15">
       <c r="O188" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="189" spans="15:15">
       <c r="O189" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="190" spans="15:15">
       <c r="O190" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="191" spans="15:15">
       <c r="O191" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="192" spans="15:15">
       <c r="O192" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="193" spans="15:15">
       <c r="O193" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="194" spans="15:15">
       <c r="O194" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="195" spans="15:15">
       <c r="O195" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="196" spans="15:15">
       <c r="O196" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="197" spans="15:15">
       <c r="O197" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="198" spans="15:15">
       <c r="O198" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="199" spans="15:15">
       <c r="O199" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="200" spans="15:15">
       <c r="O200" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="201" spans="15:15">
       <c r="O201" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="202" spans="15:15">
       <c r="O202" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="203" spans="15:15">
       <c r="O203" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="204" spans="15:15">
       <c r="O204" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="205" spans="15:15">
       <c r="O205" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="206" spans="15:15">
       <c r="O206" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="207" spans="15:15">
       <c r="O207" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="208" spans="15:15">
       <c r="O208" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="209" spans="15:15">
       <c r="O209" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="210" spans="15:15">
       <c r="O210" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="211" spans="15:15">
       <c r="O211" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="212" spans="15:15">
       <c r="O212" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="213" spans="15:15">
       <c r="O213" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="214" spans="15:15">
       <c r="O214" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="215" spans="15:15">
       <c r="O215" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="216" spans="15:15">
       <c r="O216" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="217" spans="15:15">
       <c r="O217" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="218" spans="15:15">
       <c r="O218" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="219" spans="15:15">
       <c r="O219" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="220" spans="15:15">
       <c r="O220" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="221" spans="15:15">
       <c r="O221" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="222" spans="15:15">
       <c r="O222" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="223" spans="15:15">
       <c r="O223" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="224" spans="15:15">
       <c r="O224" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="225" spans="15:15">
       <c r="O225" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="226" spans="15:15">
       <c r="O226" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="227" spans="15:15">
       <c r="O227" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="228" spans="15:15">
       <c r="O228" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="229" spans="15:15">
       <c r="O229" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="230" spans="15:15">
       <c r="O230" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="231" spans="15:15">
       <c r="O231" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="232" spans="15:15">
       <c r="O232" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="233" spans="15:15">
       <c r="O233" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="234" spans="15:15">
       <c r="O234" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="235" spans="15:15">
       <c r="O235" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="236" spans="15:15">
       <c r="O236" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="237" spans="15:15">
       <c r="O237" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="238" spans="15:15">
       <c r="O238" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="239" spans="15:15">
       <c r="O239" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="240" spans="15:15">
       <c r="O240" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="241" spans="15:15">
       <c r="O241" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="242" spans="15:15">
       <c r="O242" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="243" spans="15:15">
       <c r="O243" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="244" spans="15:15">
       <c r="O244" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="245" spans="15:15">
       <c r="O245" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="246" spans="15:15">
       <c r="O246" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="247" spans="15:15">
       <c r="O247" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="248" spans="15:15">
       <c r="O248" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="249" spans="15:15">
       <c r="O249" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="250" spans="15:15">
       <c r="O250" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="251" spans="15:15">
       <c r="O251" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="252" spans="15:15">
       <c r="O252" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="253" spans="15:15">
       <c r="O253" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="254" spans="15:15">
       <c r="O254" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="255" spans="15:15">
       <c r="O255" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="256" spans="15:15">
       <c r="O256" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="257" spans="15:15">
       <c r="O257" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="258" spans="15:15">
       <c r="O258" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="259" spans="15:15">
       <c r="O259" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="260" spans="15:15">
       <c r="O260" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="261" spans="15:15">
       <c r="O261" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="262" spans="15:15">
       <c r="O262" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="263" spans="15:15">
       <c r="O263" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="264" spans="15:15">
       <c r="O264" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="265" spans="15:15">
       <c r="O265" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="266" spans="15:15">
       <c r="O266" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="267" spans="15:15">
       <c r="O267" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="268" spans="15:15">
       <c r="O268" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="269" spans="15:15">
       <c r="O269" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="270" spans="15:15">
       <c r="O270" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="271" spans="15:15">
       <c r="O271" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="272" spans="15:15">
       <c r="O272" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="273" spans="15:15">
       <c r="O273" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="274" spans="15:15">
       <c r="O274" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="275" spans="15:15">
       <c r="O275" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="276" spans="15:15">
       <c r="O276" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="277" spans="15:15">
       <c r="O277" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="278" spans="15:15">
       <c r="O278" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="279" spans="15:15">
       <c r="O279" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="280" spans="15:15">
       <c r="O280" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="281" spans="15:15">
       <c r="O281" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="282" spans="15:15">
       <c r="O282" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="283" spans="15:15">
       <c r="O283" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="284" spans="15:15">
       <c r="O284" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="285" spans="15:15">
       <c r="O285" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="286" spans="15:15">
       <c r="O286" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="287" spans="15:15">
       <c r="O287" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="288" spans="15:15">
       <c r="O288" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="289" spans="15:15">
       <c r="O289" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000043/metadata_template_ERC000043.xlsx
+++ b/templates/ERC000043/metadata_template_ERC000043.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="604">
   <si>
     <t>alias</t>
   </si>
@@ -843,19 +843,19 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>sample collection method</t>
+    <t>sample_collection_method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample storage conditions</t>
+    <t>sample_storage_conditions</t>
   </si>
   <si>
     <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location. in soil context: explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other).</t>
   </si>
   <si>
-    <t>sample storage temperature</t>
+    <t>sample_storage_temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
@@ -867,37 +867,37 @@
     <t>(Recommended) Name of persons or institute who collected the specimen</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>water temperature</t>
+    <t>amount_or_size_of_sample_collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
+  </si>
+  <si>
+    <t>water_temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. (Units: ºC)</t>
   </si>
   <si>
-    <t>sample storage duration</t>
+    <t>sample_storage_duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1116,9 +1116,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1137,6 +1134,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1338,6 +1338,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1347,9 +1350,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1389,7 +1389,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1458,6 +1458,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1533,6 +1536,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1554,6 +1560,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1599,6 +1608,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1611,6 +1623,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1620,9 +1635,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1647,6 +1659,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1707,12 +1722,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1770,19 +1785,19 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>light intensity</t>
+    <t>light_intensity</t>
   </si>
   <si>
     <t>(Optional) Measurement of light intensity (Units: lux)</t>
   </si>
   <si>
-    <t>pH</t>
+    <t>ph</t>
   </si>
   <si>
     <t>(Optional) Ph measurement</t>
@@ -1806,13 +1821,13 @@
     <t>(Mandatory) Name of the strain from which the sample was obtained.</t>
   </si>
   <si>
-    <t>Further Details</t>
+    <t>further_details</t>
   </si>
   <si>
     <t>(Optional) Reference details related to a sample in form of an uri.</t>
   </si>
   <si>
-    <t>isolation and growth condition</t>
+    <t>isolation_and_growth_condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
@@ -1821,10 +1836,10 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Recommended) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
-  </si>
-  <si>
-    <t>growth condition</t>
+    <t>(Recommended) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
+  </si>
+  <si>
+    <t>growth_condition</t>
   </si>
   <si>
     <t>(Optional) A role that a material entity can play which enables particular conditions used to grow organisms or parts of the organism. this includes isolated environments such as cultures and open environments such as field studies.</t>
@@ -3414,34 +3429,34 @@
         <v>288</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="150" customHeight="1">
@@ -3488,34 +3503,34 @@
         <v>289</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -3530,7 +3545,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="O1:O289"/>
+  <dimension ref="O1:O294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4981,6 +4996,31 @@
         <v>578</v>
       </c>
     </row>
+    <row r="290" spans="15:15">
+      <c r="O290" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="291" spans="15:15">
+      <c r="O291" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="292" spans="15:15">
+      <c r="O292" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="293" spans="15:15">
+      <c r="O293" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="294" spans="15:15">
+      <c r="O294" t="s">
+        <v>583</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000043/metadata_template_ERC000043.xlsx
+++ b/templates/ERC000043/metadata_template_ERC000043.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="599">
   <si>
     <t>alias</t>
   </si>
@@ -843,19 +843,19 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>sample_collection_method</t>
+    <t>sample collection method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample_storage_conditions</t>
+    <t>sample storage conditions</t>
   </si>
   <si>
     <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location. in soil context: explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other).</t>
   </si>
   <si>
-    <t>sample_storage_temperature</t>
+    <t>sample storage temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
@@ -867,37 +867,37 @@
     <t>(Recommended) Name of persons or institute who collected the specimen</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>amount_or_size_of_sample_collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
-  </si>
-  <si>
-    <t>water_temperature</t>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>water temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. (Units: ºC)</t>
   </si>
   <si>
-    <t>sample_storage_duration</t>
+    <t>sample storage duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1116,6 +1116,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1134,9 +1137,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1338,9 +1338,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1350,6 +1347,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1389,7 +1389,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1458,9 +1458,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1536,9 +1533,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1560,9 +1554,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1608,9 +1599,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1623,9 +1611,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1635,6 +1620,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1659,9 +1647,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1722,12 +1707,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1785,19 +1770,19 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>light_intensity</t>
+    <t>light intensity</t>
   </si>
   <si>
     <t>(Optional) Measurement of light intensity (Units: lux)</t>
   </si>
   <si>
-    <t>ph</t>
+    <t>pH</t>
   </si>
   <si>
     <t>(Optional) Ph measurement</t>
@@ -1821,13 +1806,13 @@
     <t>(Mandatory) Name of the strain from which the sample was obtained.</t>
   </si>
   <si>
-    <t>further_details</t>
+    <t>Further Details</t>
   </si>
   <si>
     <t>(Optional) Reference details related to a sample in form of an uri.</t>
   </si>
   <si>
-    <t>isolation_and_growth_condition</t>
+    <t>isolation and growth condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
@@ -1836,10 +1821,10 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Recommended) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
-  </si>
-  <si>
-    <t>growth_condition</t>
+    <t>(Recommended) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+  </si>
+  <si>
+    <t>growth condition</t>
   </si>
   <si>
     <t>(Optional) A role that a material entity can play which enables particular conditions used to grow organisms or parts of the organism. this includes isolated environments such as cultures and open environments such as field studies.</t>
@@ -3429,34 +3414,34 @@
         <v>288</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="150" customHeight="1">
@@ -3503,34 +3488,34 @@
         <v>289</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -3545,7 +3530,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="O1:O294"/>
+  <dimension ref="O1:O289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4996,31 +4981,6 @@
         <v>578</v>
       </c>
     </row>
-    <row r="290" spans="15:15">
-      <c r="O290" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="291" spans="15:15">
-      <c r="O291" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="292" spans="15:15">
-      <c r="O292" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="293" spans="15:15">
-      <c r="O293" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="294" spans="15:15">
-      <c r="O294" t="s">
-        <v>583</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000043/metadata_template_ERC000043.xlsx
+++ b/templates/ERC000043/metadata_template_ERC000043.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="603">
   <si>
     <t>alias</t>
   </si>
@@ -835,6 +835,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3361,7 +3373,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3370,7 +3382,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3414,10 +3426,10 @@
         <v>288</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>579</v>
+        <v>290</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>581</v>
+        <v>292</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>583</v>
@@ -3443,8 +3455,14 @@
       <c r="X1" s="1" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="150" customHeight="1">
+      <c r="Y1" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3488,10 +3506,10 @@
         <v>289</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>580</v>
+        <v>291</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>582</v>
+        <v>293</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>584</v>
@@ -3517,10 +3535,16 @@
       <c r="X2" s="2" t="s">
         <v>598</v>
       </c>
+      <c r="Y2" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>602</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -3530,1455 +3554,1455 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="O1:O289"/>
+  <dimension ref="Q1:Q289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="15:15">
-      <c r="O1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="2" spans="15:15">
-      <c r="O2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="15:15">
-      <c r="O3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4" spans="15:15">
-      <c r="O4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="15:15">
-      <c r="O5" t="s">
+    <row r="1" spans="17:17">
+      <c r="Q1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="15:15">
-      <c r="O6" t="s">
+    <row r="2" spans="17:17">
+      <c r="Q2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="15:15">
-      <c r="O7" t="s">
+    <row r="3" spans="17:17">
+      <c r="Q3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="15:15">
-      <c r="O8" t="s">
+    <row r="4" spans="17:17">
+      <c r="Q4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="15:15">
-      <c r="O9" t="s">
+    <row r="5" spans="17:17">
+      <c r="Q5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="15:15">
-      <c r="O10" t="s">
+    <row r="6" spans="17:17">
+      <c r="Q6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="15:15">
-      <c r="O11" t="s">
+    <row r="7" spans="17:17">
+      <c r="Q7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="15:15">
-      <c r="O12" t="s">
+    <row r="8" spans="17:17">
+      <c r="Q8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="15:15">
-      <c r="O13" t="s">
+    <row r="9" spans="17:17">
+      <c r="Q9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="15:15">
-      <c r="O14" t="s">
+    <row r="10" spans="17:17">
+      <c r="Q10" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="15:15">
-      <c r="O15" t="s">
+    <row r="11" spans="17:17">
+      <c r="Q11" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="15:15">
-      <c r="O16" t="s">
+    <row r="12" spans="17:17">
+      <c r="Q12" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="15:15">
-      <c r="O17" t="s">
+    <row r="13" spans="17:17">
+      <c r="Q13" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="15:15">
-      <c r="O18" t="s">
+    <row r="14" spans="17:17">
+      <c r="Q14" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="15:15">
-      <c r="O19" t="s">
+    <row r="15" spans="17:17">
+      <c r="Q15" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="15:15">
-      <c r="O20" t="s">
+    <row r="16" spans="17:17">
+      <c r="Q16" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="15:15">
-      <c r="O21" t="s">
+    <row r="17" spans="17:17">
+      <c r="Q17" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="15:15">
-      <c r="O22" t="s">
+    <row r="18" spans="17:17">
+      <c r="Q18" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="15:15">
-      <c r="O23" t="s">
+    <row r="19" spans="17:17">
+      <c r="Q19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="15:15">
-      <c r="O24" t="s">
+    <row r="20" spans="17:17">
+      <c r="Q20" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="15:15">
-      <c r="O25" t="s">
+    <row r="21" spans="17:17">
+      <c r="Q21" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="15:15">
-      <c r="O26" t="s">
+    <row r="22" spans="17:17">
+      <c r="Q22" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="15:15">
-      <c r="O27" t="s">
+    <row r="23" spans="17:17">
+      <c r="Q23" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="28" spans="15:15">
-      <c r="O28" t="s">
+    <row r="24" spans="17:17">
+      <c r="Q24" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="29" spans="15:15">
-      <c r="O29" t="s">
+    <row r="25" spans="17:17">
+      <c r="Q25" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="30" spans="15:15">
-      <c r="O30" t="s">
+    <row r="26" spans="17:17">
+      <c r="Q26" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="31" spans="15:15">
-      <c r="O31" t="s">
+    <row r="27" spans="17:17">
+      <c r="Q27" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="32" spans="15:15">
-      <c r="O32" t="s">
+    <row r="28" spans="17:17">
+      <c r="Q28" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="15:15">
-      <c r="O33" t="s">
+    <row r="29" spans="17:17">
+      <c r="Q29" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="34" spans="15:15">
-      <c r="O34" t="s">
+    <row r="30" spans="17:17">
+      <c r="Q30" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="15:15">
-      <c r="O35" t="s">
+    <row r="31" spans="17:17">
+      <c r="Q31" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="15:15">
-      <c r="O36" t="s">
+    <row r="32" spans="17:17">
+      <c r="Q32" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="37" spans="15:15">
-      <c r="O37" t="s">
+    <row r="33" spans="17:17">
+      <c r="Q33" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="15:15">
-      <c r="O38" t="s">
+    <row r="34" spans="17:17">
+      <c r="Q34" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="15:15">
-      <c r="O39" t="s">
+    <row r="35" spans="17:17">
+      <c r="Q35" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="15:15">
-      <c r="O40" t="s">
+    <row r="36" spans="17:17">
+      <c r="Q36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="15:15">
-      <c r="O41" t="s">
+    <row r="37" spans="17:17">
+      <c r="Q37" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="15:15">
-      <c r="O42" t="s">
+    <row r="38" spans="17:17">
+      <c r="Q38" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="15:15">
-      <c r="O43" t="s">
+    <row r="39" spans="17:17">
+      <c r="Q39" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="44" spans="15:15">
-      <c r="O44" t="s">
+    <row r="40" spans="17:17">
+      <c r="Q40" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="15:15">
-      <c r="O45" t="s">
+    <row r="41" spans="17:17">
+      <c r="Q41" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="46" spans="15:15">
-      <c r="O46" t="s">
+    <row r="42" spans="17:17">
+      <c r="Q42" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="47" spans="15:15">
-      <c r="O47" t="s">
+    <row r="43" spans="17:17">
+      <c r="Q43" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="48" spans="15:15">
-      <c r="O48" t="s">
+    <row r="44" spans="17:17">
+      <c r="Q44" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="49" spans="15:15">
-      <c r="O49" t="s">
+    <row r="45" spans="17:17">
+      <c r="Q45" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="50" spans="15:15">
-      <c r="O50" t="s">
+    <row r="46" spans="17:17">
+      <c r="Q46" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="51" spans="15:15">
-      <c r="O51" t="s">
+    <row r="47" spans="17:17">
+      <c r="Q47" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="52" spans="15:15">
-      <c r="O52" t="s">
+    <row r="48" spans="17:17">
+      <c r="Q48" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="53" spans="15:15">
-      <c r="O53" t="s">
+    <row r="49" spans="17:17">
+      <c r="Q49" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="54" spans="15:15">
-      <c r="O54" t="s">
+    <row r="50" spans="17:17">
+      <c r="Q50" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="55" spans="15:15">
-      <c r="O55" t="s">
+    <row r="51" spans="17:17">
+      <c r="Q51" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="56" spans="15:15">
-      <c r="O56" t="s">
+    <row r="52" spans="17:17">
+      <c r="Q52" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="57" spans="15:15">
-      <c r="O57" t="s">
+    <row r="53" spans="17:17">
+      <c r="Q53" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="58" spans="15:15">
-      <c r="O58" t="s">
+    <row r="54" spans="17:17">
+      <c r="Q54" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="59" spans="15:15">
-      <c r="O59" t="s">
+    <row r="55" spans="17:17">
+      <c r="Q55" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="60" spans="15:15">
-      <c r="O60" t="s">
+    <row r="56" spans="17:17">
+      <c r="Q56" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="61" spans="15:15">
-      <c r="O61" t="s">
+    <row r="57" spans="17:17">
+      <c r="Q57" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="62" spans="15:15">
-      <c r="O62" t="s">
+    <row r="58" spans="17:17">
+      <c r="Q58" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="63" spans="15:15">
-      <c r="O63" t="s">
+    <row r="59" spans="17:17">
+      <c r="Q59" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="15:15">
-      <c r="O64" t="s">
+    <row r="60" spans="17:17">
+      <c r="Q60" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="65" spans="15:15">
-      <c r="O65" t="s">
+    <row r="61" spans="17:17">
+      <c r="Q61" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="66" spans="15:15">
-      <c r="O66" t="s">
+    <row r="62" spans="17:17">
+      <c r="Q62" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="67" spans="15:15">
-      <c r="O67" t="s">
+    <row r="63" spans="17:17">
+      <c r="Q63" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="68" spans="15:15">
-      <c r="O68" t="s">
+    <row r="64" spans="17:17">
+      <c r="Q64" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="69" spans="15:15">
-      <c r="O69" t="s">
+    <row r="65" spans="17:17">
+      <c r="Q65" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="70" spans="15:15">
-      <c r="O70" t="s">
+    <row r="66" spans="17:17">
+      <c r="Q66" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="71" spans="15:15">
-      <c r="O71" t="s">
+    <row r="67" spans="17:17">
+      <c r="Q67" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="15:15">
-      <c r="O72" t="s">
+    <row r="68" spans="17:17">
+      <c r="Q68" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="73" spans="15:15">
-      <c r="O73" t="s">
+    <row r="69" spans="17:17">
+      <c r="Q69" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="74" spans="15:15">
-      <c r="O74" t="s">
+    <row r="70" spans="17:17">
+      <c r="Q70" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="75" spans="15:15">
-      <c r="O75" t="s">
+    <row r="71" spans="17:17">
+      <c r="Q71" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="76" spans="15:15">
-      <c r="O76" t="s">
+    <row r="72" spans="17:17">
+      <c r="Q72" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="77" spans="15:15">
-      <c r="O77" t="s">
+    <row r="73" spans="17:17">
+      <c r="Q73" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="78" spans="15:15">
-      <c r="O78" t="s">
+    <row r="74" spans="17:17">
+      <c r="Q74" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="79" spans="15:15">
-      <c r="O79" t="s">
+    <row r="75" spans="17:17">
+      <c r="Q75" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="80" spans="15:15">
-      <c r="O80" t="s">
+    <row r="76" spans="17:17">
+      <c r="Q76" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="81" spans="15:15">
-      <c r="O81" t="s">
+    <row r="77" spans="17:17">
+      <c r="Q77" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="82" spans="15:15">
-      <c r="O82" t="s">
+    <row r="78" spans="17:17">
+      <c r="Q78" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="83" spans="15:15">
-      <c r="O83" t="s">
+    <row r="79" spans="17:17">
+      <c r="Q79" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="84" spans="15:15">
-      <c r="O84" t="s">
+    <row r="80" spans="17:17">
+      <c r="Q80" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="85" spans="15:15">
-      <c r="O85" t="s">
+    <row r="81" spans="17:17">
+      <c r="Q81" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="86" spans="15:15">
-      <c r="O86" t="s">
+    <row r="82" spans="17:17">
+      <c r="Q82" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="87" spans="15:15">
-      <c r="O87" t="s">
+    <row r="83" spans="17:17">
+      <c r="Q83" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="88" spans="15:15">
-      <c r="O88" t="s">
+    <row r="84" spans="17:17">
+      <c r="Q84" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="89" spans="15:15">
-      <c r="O89" t="s">
+    <row r="85" spans="17:17">
+      <c r="Q85" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="90" spans="15:15">
-      <c r="O90" t="s">
+    <row r="86" spans="17:17">
+      <c r="Q86" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="91" spans="15:15">
-      <c r="O91" t="s">
+    <row r="87" spans="17:17">
+      <c r="Q87" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="92" spans="15:15">
-      <c r="O92" t="s">
+    <row r="88" spans="17:17">
+      <c r="Q88" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="93" spans="15:15">
-      <c r="O93" t="s">
+    <row r="89" spans="17:17">
+      <c r="Q89" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="94" spans="15:15">
-      <c r="O94" t="s">
+    <row r="90" spans="17:17">
+      <c r="Q90" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="95" spans="15:15">
-      <c r="O95" t="s">
+    <row r="91" spans="17:17">
+      <c r="Q91" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="96" spans="15:15">
-      <c r="O96" t="s">
+    <row r="92" spans="17:17">
+      <c r="Q92" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="97" spans="15:15">
-      <c r="O97" t="s">
+    <row r="93" spans="17:17">
+      <c r="Q93" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="98" spans="15:15">
-      <c r="O98" t="s">
+    <row r="94" spans="17:17">
+      <c r="Q94" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="99" spans="15:15">
-      <c r="O99" t="s">
+    <row r="95" spans="17:17">
+      <c r="Q95" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="100" spans="15:15">
-      <c r="O100" t="s">
+    <row r="96" spans="17:17">
+      <c r="Q96" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="101" spans="15:15">
-      <c r="O101" t="s">
+    <row r="97" spans="17:17">
+      <c r="Q97" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="102" spans="15:15">
-      <c r="O102" t="s">
+    <row r="98" spans="17:17">
+      <c r="Q98" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="103" spans="15:15">
-      <c r="O103" t="s">
+    <row r="99" spans="17:17">
+      <c r="Q99" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="104" spans="15:15">
-      <c r="O104" t="s">
+    <row r="100" spans="17:17">
+      <c r="Q100" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="105" spans="15:15">
-      <c r="O105" t="s">
+    <row r="101" spans="17:17">
+      <c r="Q101" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="106" spans="15:15">
-      <c r="O106" t="s">
+    <row r="102" spans="17:17">
+      <c r="Q102" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="107" spans="15:15">
-      <c r="O107" t="s">
+    <row r="103" spans="17:17">
+      <c r="Q103" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="108" spans="15:15">
-      <c r="O108" t="s">
+    <row r="104" spans="17:17">
+      <c r="Q104" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="109" spans="15:15">
-      <c r="O109" t="s">
+    <row r="105" spans="17:17">
+      <c r="Q105" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="110" spans="15:15">
-      <c r="O110" t="s">
+    <row r="106" spans="17:17">
+      <c r="Q106" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="111" spans="15:15">
-      <c r="O111" t="s">
+    <row r="107" spans="17:17">
+      <c r="Q107" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="112" spans="15:15">
-      <c r="O112" t="s">
+    <row r="108" spans="17:17">
+      <c r="Q108" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="113" spans="15:15">
-      <c r="O113" t="s">
+    <row r="109" spans="17:17">
+      <c r="Q109" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="114" spans="15:15">
-      <c r="O114" t="s">
+    <row r="110" spans="17:17">
+      <c r="Q110" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="115" spans="15:15">
-      <c r="O115" t="s">
+    <row r="111" spans="17:17">
+      <c r="Q111" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="116" spans="15:15">
-      <c r="O116" t="s">
+    <row r="112" spans="17:17">
+      <c r="Q112" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="117" spans="15:15">
-      <c r="O117" t="s">
+    <row r="113" spans="17:17">
+      <c r="Q113" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="118" spans="15:15">
-      <c r="O118" t="s">
+    <row r="114" spans="17:17">
+      <c r="Q114" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="119" spans="15:15">
-      <c r="O119" t="s">
+    <row r="115" spans="17:17">
+      <c r="Q115" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="120" spans="15:15">
-      <c r="O120" t="s">
+    <row r="116" spans="17:17">
+      <c r="Q116" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="121" spans="15:15">
-      <c r="O121" t="s">
+    <row r="117" spans="17:17">
+      <c r="Q117" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="122" spans="15:15">
-      <c r="O122" t="s">
+    <row r="118" spans="17:17">
+      <c r="Q118" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="123" spans="15:15">
-      <c r="O123" t="s">
+    <row r="119" spans="17:17">
+      <c r="Q119" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="124" spans="15:15">
-      <c r="O124" t="s">
+    <row r="120" spans="17:17">
+      <c r="Q120" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="125" spans="15:15">
-      <c r="O125" t="s">
+    <row r="121" spans="17:17">
+      <c r="Q121" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="126" spans="15:15">
-      <c r="O126" t="s">
+    <row r="122" spans="17:17">
+      <c r="Q122" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="127" spans="15:15">
-      <c r="O127" t="s">
+    <row r="123" spans="17:17">
+      <c r="Q123" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="15:15">
-      <c r="O128" t="s">
+    <row r="124" spans="17:17">
+      <c r="Q124" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="129" spans="15:15">
-      <c r="O129" t="s">
+    <row r="125" spans="17:17">
+      <c r="Q125" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="130" spans="15:15">
-      <c r="O130" t="s">
+    <row r="126" spans="17:17">
+      <c r="Q126" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="131" spans="15:15">
-      <c r="O131" t="s">
+    <row r="127" spans="17:17">
+      <c r="Q127" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="132" spans="15:15">
-      <c r="O132" t="s">
+    <row r="128" spans="17:17">
+      <c r="Q128" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="133" spans="15:15">
-      <c r="O133" t="s">
+    <row r="129" spans="17:17">
+      <c r="Q129" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="134" spans="15:15">
-      <c r="O134" t="s">
+    <row r="130" spans="17:17">
+      <c r="Q130" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="135" spans="15:15">
-      <c r="O135" t="s">
+    <row r="131" spans="17:17">
+      <c r="Q131" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="136" spans="15:15">
-      <c r="O136" t="s">
+    <row r="132" spans="17:17">
+      <c r="Q132" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="137" spans="15:15">
-      <c r="O137" t="s">
+    <row r="133" spans="17:17">
+      <c r="Q133" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="138" spans="15:15">
-      <c r="O138" t="s">
+    <row r="134" spans="17:17">
+      <c r="Q134" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="139" spans="15:15">
-      <c r="O139" t="s">
+    <row r="135" spans="17:17">
+      <c r="Q135" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="140" spans="15:15">
-      <c r="O140" t="s">
+    <row r="136" spans="17:17">
+      <c r="Q136" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="141" spans="15:15">
-      <c r="O141" t="s">
+    <row r="137" spans="17:17">
+      <c r="Q137" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="142" spans="15:15">
-      <c r="O142" t="s">
+    <row r="138" spans="17:17">
+      <c r="Q138" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="143" spans="15:15">
-      <c r="O143" t="s">
+    <row r="139" spans="17:17">
+      <c r="Q139" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="144" spans="15:15">
-      <c r="O144" t="s">
+    <row r="140" spans="17:17">
+      <c r="Q140" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="145" spans="15:15">
-      <c r="O145" t="s">
+    <row r="141" spans="17:17">
+      <c r="Q141" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="146" spans="15:15">
-      <c r="O146" t="s">
+    <row r="142" spans="17:17">
+      <c r="Q142" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="147" spans="15:15">
-      <c r="O147" t="s">
+    <row r="143" spans="17:17">
+      <c r="Q143" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="148" spans="15:15">
-      <c r="O148" t="s">
+    <row r="144" spans="17:17">
+      <c r="Q144" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="149" spans="15:15">
-      <c r="O149" t="s">
+    <row r="145" spans="17:17">
+      <c r="Q145" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="150" spans="15:15">
-      <c r="O150" t="s">
+    <row r="146" spans="17:17">
+      <c r="Q146" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="151" spans="15:15">
-      <c r="O151" t="s">
+    <row r="147" spans="17:17">
+      <c r="Q147" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="152" spans="15:15">
-      <c r="O152" t="s">
+    <row r="148" spans="17:17">
+      <c r="Q148" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="153" spans="15:15">
-      <c r="O153" t="s">
+    <row r="149" spans="17:17">
+      <c r="Q149" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="154" spans="15:15">
-      <c r="O154" t="s">
+    <row r="150" spans="17:17">
+      <c r="Q150" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="155" spans="15:15">
-      <c r="O155" t="s">
+    <row r="151" spans="17:17">
+      <c r="Q151" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="156" spans="15:15">
-      <c r="O156" t="s">
+    <row r="152" spans="17:17">
+      <c r="Q152" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="157" spans="15:15">
-      <c r="O157" t="s">
+    <row r="153" spans="17:17">
+      <c r="Q153" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="158" spans="15:15">
-      <c r="O158" t="s">
+    <row r="154" spans="17:17">
+      <c r="Q154" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="159" spans="15:15">
-      <c r="O159" t="s">
+    <row r="155" spans="17:17">
+      <c r="Q155" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="160" spans="15:15">
-      <c r="O160" t="s">
+    <row r="156" spans="17:17">
+      <c r="Q156" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="161" spans="15:15">
-      <c r="O161" t="s">
+    <row r="157" spans="17:17">
+      <c r="Q157" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="162" spans="15:15">
-      <c r="O162" t="s">
+    <row r="158" spans="17:17">
+      <c r="Q158" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="163" spans="15:15">
-      <c r="O163" t="s">
+    <row r="159" spans="17:17">
+      <c r="Q159" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="164" spans="15:15">
-      <c r="O164" t="s">
+    <row r="160" spans="17:17">
+      <c r="Q160" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="165" spans="15:15">
-      <c r="O165" t="s">
+    <row r="161" spans="17:17">
+      <c r="Q161" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="166" spans="15:15">
-      <c r="O166" t="s">
+    <row r="162" spans="17:17">
+      <c r="Q162" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="167" spans="15:15">
-      <c r="O167" t="s">
+    <row r="163" spans="17:17">
+      <c r="Q163" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="168" spans="15:15">
-      <c r="O168" t="s">
+    <row r="164" spans="17:17">
+      <c r="Q164" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="169" spans="15:15">
-      <c r="O169" t="s">
+    <row r="165" spans="17:17">
+      <c r="Q165" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="170" spans="15:15">
-      <c r="O170" t="s">
+    <row r="166" spans="17:17">
+      <c r="Q166" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="171" spans="15:15">
-      <c r="O171" t="s">
+    <row r="167" spans="17:17">
+      <c r="Q167" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="172" spans="15:15">
-      <c r="O172" t="s">
+    <row r="168" spans="17:17">
+      <c r="Q168" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="173" spans="15:15">
-      <c r="O173" t="s">
+    <row r="169" spans="17:17">
+      <c r="Q169" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="174" spans="15:15">
-      <c r="O174" t="s">
+    <row r="170" spans="17:17">
+      <c r="Q170" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="175" spans="15:15">
-      <c r="O175" t="s">
+    <row r="171" spans="17:17">
+      <c r="Q171" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="176" spans="15:15">
-      <c r="O176" t="s">
+    <row r="172" spans="17:17">
+      <c r="Q172" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="177" spans="15:15">
-      <c r="O177" t="s">
+    <row r="173" spans="17:17">
+      <c r="Q173" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="178" spans="15:15">
-      <c r="O178" t="s">
+    <row r="174" spans="17:17">
+      <c r="Q174" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="179" spans="15:15">
-      <c r="O179" t="s">
+    <row r="175" spans="17:17">
+      <c r="Q175" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="180" spans="15:15">
-      <c r="O180" t="s">
+    <row r="176" spans="17:17">
+      <c r="Q176" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="181" spans="15:15">
-      <c r="O181" t="s">
+    <row r="177" spans="17:17">
+      <c r="Q177" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="182" spans="15:15">
-      <c r="O182" t="s">
+    <row r="178" spans="17:17">
+      <c r="Q178" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="183" spans="15:15">
-      <c r="O183" t="s">
+    <row r="179" spans="17:17">
+      <c r="Q179" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="184" spans="15:15">
-      <c r="O184" t="s">
+    <row r="180" spans="17:17">
+      <c r="Q180" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="185" spans="15:15">
-      <c r="O185" t="s">
+    <row r="181" spans="17:17">
+      <c r="Q181" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="186" spans="15:15">
-      <c r="O186" t="s">
+    <row r="182" spans="17:17">
+      <c r="Q182" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="187" spans="15:15">
-      <c r="O187" t="s">
+    <row r="183" spans="17:17">
+      <c r="Q183" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="188" spans="15:15">
-      <c r="O188" t="s">
+    <row r="184" spans="17:17">
+      <c r="Q184" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="189" spans="15:15">
-      <c r="O189" t="s">
+    <row r="185" spans="17:17">
+      <c r="Q185" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="190" spans="15:15">
-      <c r="O190" t="s">
+    <row r="186" spans="17:17">
+      <c r="Q186" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="191" spans="15:15">
-      <c r="O191" t="s">
+    <row r="187" spans="17:17">
+      <c r="Q187" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="192" spans="15:15">
-      <c r="O192" t="s">
+    <row r="188" spans="17:17">
+      <c r="Q188" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="193" spans="15:15">
-      <c r="O193" t="s">
+    <row r="189" spans="17:17">
+      <c r="Q189" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="194" spans="15:15">
-      <c r="O194" t="s">
+    <row r="190" spans="17:17">
+      <c r="Q190" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="195" spans="15:15">
-      <c r="O195" t="s">
+    <row r="191" spans="17:17">
+      <c r="Q191" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="196" spans="15:15">
-      <c r="O196" t="s">
+    <row r="192" spans="17:17">
+      <c r="Q192" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="197" spans="15:15">
-      <c r="O197" t="s">
+    <row r="193" spans="17:17">
+      <c r="Q193" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="198" spans="15:15">
-      <c r="O198" t="s">
+    <row r="194" spans="17:17">
+      <c r="Q194" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="199" spans="15:15">
-      <c r="O199" t="s">
+    <row r="195" spans="17:17">
+      <c r="Q195" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="200" spans="15:15">
-      <c r="O200" t="s">
+    <row r="196" spans="17:17">
+      <c r="Q196" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="201" spans="15:15">
-      <c r="O201" t="s">
+    <row r="197" spans="17:17">
+      <c r="Q197" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="202" spans="15:15">
-      <c r="O202" t="s">
+    <row r="198" spans="17:17">
+      <c r="Q198" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="203" spans="15:15">
-      <c r="O203" t="s">
+    <row r="199" spans="17:17">
+      <c r="Q199" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="204" spans="15:15">
-      <c r="O204" t="s">
+    <row r="200" spans="17:17">
+      <c r="Q200" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="205" spans="15:15">
-      <c r="O205" t="s">
+    <row r="201" spans="17:17">
+      <c r="Q201" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="206" spans="15:15">
-      <c r="O206" t="s">
+    <row r="202" spans="17:17">
+      <c r="Q202" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="207" spans="15:15">
-      <c r="O207" t="s">
+    <row r="203" spans="17:17">
+      <c r="Q203" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="208" spans="15:15">
-      <c r="O208" t="s">
+    <row r="204" spans="17:17">
+      <c r="Q204" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="209" spans="15:15">
-      <c r="O209" t="s">
+    <row r="205" spans="17:17">
+      <c r="Q205" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="210" spans="15:15">
-      <c r="O210" t="s">
+    <row r="206" spans="17:17">
+      <c r="Q206" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="211" spans="15:15">
-      <c r="O211" t="s">
+    <row r="207" spans="17:17">
+      <c r="Q207" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="212" spans="15:15">
-      <c r="O212" t="s">
+    <row r="208" spans="17:17">
+      <c r="Q208" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="213" spans="15:15">
-      <c r="O213" t="s">
+    <row r="209" spans="17:17">
+      <c r="Q209" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="214" spans="15:15">
-      <c r="O214" t="s">
+    <row r="210" spans="17:17">
+      <c r="Q210" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="215" spans="15:15">
-      <c r="O215" t="s">
+    <row r="211" spans="17:17">
+      <c r="Q211" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="216" spans="15:15">
-      <c r="O216" t="s">
+    <row r="212" spans="17:17">
+      <c r="Q212" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="217" spans="15:15">
-      <c r="O217" t="s">
+    <row r="213" spans="17:17">
+      <c r="Q213" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="218" spans="15:15">
-      <c r="O218" t="s">
+    <row r="214" spans="17:17">
+      <c r="Q214" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="219" spans="15:15">
-      <c r="O219" t="s">
+    <row r="215" spans="17:17">
+      <c r="Q215" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="220" spans="15:15">
-      <c r="O220" t="s">
+    <row r="216" spans="17:17">
+      <c r="Q216" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="221" spans="15:15">
-      <c r="O221" t="s">
+    <row r="217" spans="17:17">
+      <c r="Q217" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="222" spans="15:15">
-      <c r="O222" t="s">
+    <row r="218" spans="17:17">
+      <c r="Q218" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="223" spans="15:15">
-      <c r="O223" t="s">
+    <row r="219" spans="17:17">
+      <c r="Q219" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="224" spans="15:15">
-      <c r="O224" t="s">
+    <row r="220" spans="17:17">
+      <c r="Q220" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="225" spans="15:15">
-      <c r="O225" t="s">
+    <row r="221" spans="17:17">
+      <c r="Q221" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="226" spans="15:15">
-      <c r="O226" t="s">
+    <row r="222" spans="17:17">
+      <c r="Q222" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="227" spans="15:15">
-      <c r="O227" t="s">
+    <row r="223" spans="17:17">
+      <c r="Q223" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="228" spans="15:15">
-      <c r="O228" t="s">
+    <row r="224" spans="17:17">
+      <c r="Q224" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="229" spans="15:15">
-      <c r="O229" t="s">
+    <row r="225" spans="17:17">
+      <c r="Q225" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="230" spans="15:15">
-      <c r="O230" t="s">
+    <row r="226" spans="17:17">
+      <c r="Q226" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="231" spans="15:15">
-      <c r="O231" t="s">
+    <row r="227" spans="17:17">
+      <c r="Q227" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="232" spans="15:15">
-      <c r="O232" t="s">
+    <row r="228" spans="17:17">
+      <c r="Q228" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="233" spans="15:15">
-      <c r="O233" t="s">
+    <row r="229" spans="17:17">
+      <c r="Q229" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="234" spans="15:15">
-      <c r="O234" t="s">
+    <row r="230" spans="17:17">
+      <c r="Q230" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="235" spans="15:15">
-      <c r="O235" t="s">
+    <row r="231" spans="17:17">
+      <c r="Q231" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="236" spans="15:15">
-      <c r="O236" t="s">
+    <row r="232" spans="17:17">
+      <c r="Q232" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="237" spans="15:15">
-      <c r="O237" t="s">
+    <row r="233" spans="17:17">
+      <c r="Q233" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="238" spans="15:15">
-      <c r="O238" t="s">
+    <row r="234" spans="17:17">
+      <c r="Q234" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="239" spans="15:15">
-      <c r="O239" t="s">
+    <row r="235" spans="17:17">
+      <c r="Q235" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="240" spans="15:15">
-      <c r="O240" t="s">
+    <row r="236" spans="17:17">
+      <c r="Q236" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="241" spans="15:15">
-      <c r="O241" t="s">
+    <row r="237" spans="17:17">
+      <c r="Q237" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="242" spans="15:15">
-      <c r="O242" t="s">
+    <row r="238" spans="17:17">
+      <c r="Q238" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="243" spans="15:15">
-      <c r="O243" t="s">
+    <row r="239" spans="17:17">
+      <c r="Q239" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="244" spans="15:15">
-      <c r="O244" t="s">
+    <row r="240" spans="17:17">
+      <c r="Q240" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="245" spans="15:15">
-      <c r="O245" t="s">
+    <row r="241" spans="17:17">
+      <c r="Q241" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="246" spans="15:15">
-      <c r="O246" t="s">
+    <row r="242" spans="17:17">
+      <c r="Q242" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="247" spans="15:15">
-      <c r="O247" t="s">
+    <row r="243" spans="17:17">
+      <c r="Q243" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="248" spans="15:15">
-      <c r="O248" t="s">
+    <row r="244" spans="17:17">
+      <c r="Q244" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="249" spans="15:15">
-      <c r="O249" t="s">
+    <row r="245" spans="17:17">
+      <c r="Q245" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="250" spans="15:15">
-      <c r="O250" t="s">
+    <row r="246" spans="17:17">
+      <c r="Q246" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="251" spans="15:15">
-      <c r="O251" t="s">
+    <row r="247" spans="17:17">
+      <c r="Q247" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="252" spans="15:15">
-      <c r="O252" t="s">
+    <row r="248" spans="17:17">
+      <c r="Q248" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="253" spans="15:15">
-      <c r="O253" t="s">
+    <row r="249" spans="17:17">
+      <c r="Q249" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="254" spans="15:15">
-      <c r="O254" t="s">
+    <row r="250" spans="17:17">
+      <c r="Q250" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="255" spans="15:15">
-      <c r="O255" t="s">
+    <row r="251" spans="17:17">
+      <c r="Q251" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="256" spans="15:15">
-      <c r="O256" t="s">
+    <row r="252" spans="17:17">
+      <c r="Q252" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="257" spans="15:15">
-      <c r="O257" t="s">
+    <row r="253" spans="17:17">
+      <c r="Q253" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="258" spans="15:15">
-      <c r="O258" t="s">
+    <row r="254" spans="17:17">
+      <c r="Q254" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="259" spans="15:15">
-      <c r="O259" t="s">
+    <row r="255" spans="17:17">
+      <c r="Q255" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="260" spans="15:15">
-      <c r="O260" t="s">
+    <row r="256" spans="17:17">
+      <c r="Q256" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="261" spans="15:15">
-      <c r="O261" t="s">
+    <row r="257" spans="17:17">
+      <c r="Q257" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="262" spans="15:15">
-      <c r="O262" t="s">
+    <row r="258" spans="17:17">
+      <c r="Q258" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="263" spans="15:15">
-      <c r="O263" t="s">
+    <row r="259" spans="17:17">
+      <c r="Q259" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="264" spans="15:15">
-      <c r="O264" t="s">
+    <row r="260" spans="17:17">
+      <c r="Q260" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="265" spans="15:15">
-      <c r="O265" t="s">
+    <row r="261" spans="17:17">
+      <c r="Q261" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="266" spans="15:15">
-      <c r="O266" t="s">
+    <row r="262" spans="17:17">
+      <c r="Q262" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="267" spans="15:15">
-      <c r="O267" t="s">
+    <row r="263" spans="17:17">
+      <c r="Q263" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="268" spans="15:15">
-      <c r="O268" t="s">
+    <row r="264" spans="17:17">
+      <c r="Q264" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="269" spans="15:15">
-      <c r="O269" t="s">
+    <row r="265" spans="17:17">
+      <c r="Q265" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="270" spans="15:15">
-      <c r="O270" t="s">
+    <row r="266" spans="17:17">
+      <c r="Q266" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="271" spans="15:15">
-      <c r="O271" t="s">
+    <row r="267" spans="17:17">
+      <c r="Q267" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="272" spans="15:15">
-      <c r="O272" t="s">
+    <row r="268" spans="17:17">
+      <c r="Q268" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="273" spans="15:15">
-      <c r="O273" t="s">
+    <row r="269" spans="17:17">
+      <c r="Q269" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="274" spans="15:15">
-      <c r="O274" t="s">
+    <row r="270" spans="17:17">
+      <c r="Q270" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="275" spans="15:15">
-      <c r="O275" t="s">
+    <row r="271" spans="17:17">
+      <c r="Q271" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="276" spans="15:15">
-      <c r="O276" t="s">
+    <row r="272" spans="17:17">
+      <c r="Q272" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="277" spans="15:15">
-      <c r="O277" t="s">
+    <row r="273" spans="17:17">
+      <c r="Q273" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="278" spans="15:15">
-      <c r="O278" t="s">
+    <row r="274" spans="17:17">
+      <c r="Q274" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="279" spans="15:15">
-      <c r="O279" t="s">
+    <row r="275" spans="17:17">
+      <c r="Q275" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="280" spans="15:15">
-      <c r="O280" t="s">
+    <row r="276" spans="17:17">
+      <c r="Q276" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="281" spans="15:15">
-      <c r="O281" t="s">
+    <row r="277" spans="17:17">
+      <c r="Q277" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="282" spans="15:15">
-      <c r="O282" t="s">
+    <row r="278" spans="17:17">
+      <c r="Q278" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="283" spans="15:15">
-      <c r="O283" t="s">
+    <row r="279" spans="17:17">
+      <c r="Q279" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="284" spans="15:15">
-      <c r="O284" t="s">
+    <row r="280" spans="17:17">
+      <c r="Q280" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="285" spans="15:15">
-      <c r="O285" t="s">
+    <row r="281" spans="17:17">
+      <c r="Q281" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="286" spans="15:15">
-      <c r="O286" t="s">
+    <row r="282" spans="17:17">
+      <c r="Q282" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="287" spans="15:15">
-      <c r="O287" t="s">
+    <row r="283" spans="17:17">
+      <c r="Q283" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="288" spans="15:15">
-      <c r="O288" t="s">
+    <row r="284" spans="17:17">
+      <c r="Q284" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="289" spans="15:15">
-      <c r="O289" t="s">
+    <row r="285" spans="17:17">
+      <c r="Q285" t="s">
         <v>578</v>
+      </c>
+    </row>
+    <row r="286" spans="17:17">
+      <c r="Q286" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="287" spans="17:17">
+      <c r="Q287" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="288" spans="17:17">
+      <c r="Q288" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="289" spans="17:17">
+      <c r="Q289" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000043/metadata_template_ERC000043.xlsx
+++ b/templates/ERC000043/metadata_template_ERC000043.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="608">
   <si>
     <t>alias</t>
   </si>
@@ -900,7 +900,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m2, m3, g, L, kg)</t>
   </si>
   <si>
     <t>water temperature</t>
@@ -1128,9 +1128,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1149,6 +1146,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1350,6 +1350,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1359,9 +1362,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1470,6 +1470,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1545,6 +1548,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1566,6 +1572,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1611,6 +1620,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1623,6 +1635,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1632,9 +1647,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1659,6 +1671,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1719,12 +1734,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1833,7 +1848,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Recommended) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Recommended) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm, m)</t>
   </si>
   <si>
     <t>growth condition</t>
@@ -3432,34 +3447,34 @@
         <v>292</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="150" customHeight="1">
@@ -3512,34 +3527,34 @@
         <v>293</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -3554,7 +3569,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="Q1:Q289"/>
+  <dimension ref="Q1:Q294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5005,6 +5020,31 @@
         <v>582</v>
       </c>
     </row>
+    <row r="290" spans="17:17">
+      <c r="Q290" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="291" spans="17:17">
+      <c r="Q291" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="292" spans="17:17">
+      <c r="Q292" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="293" spans="17:17">
+      <c r="Q293" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="294" spans="17:17">
+      <c r="Q294" t="s">
+        <v>587</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000043/metadata_template_ERC000043.xlsx
+++ b/templates/ERC000043/metadata_template_ERC000043.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="608">
   <si>
     <t>alias</t>
   </si>
@@ -900,7 +900,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>water temperature</t>
@@ -1128,9 +1128,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1149,6 +1146,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1350,6 +1350,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1359,9 +1362,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1470,6 +1470,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1545,6 +1548,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1566,6 +1572,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1611,6 +1620,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1623,6 +1635,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1632,9 +1647,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1659,6 +1671,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1719,12 +1734,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1833,7 +1848,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Recommended) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Recommended) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>growth condition</t>
@@ -3432,34 +3447,34 @@
         <v>292</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="150" customHeight="1">
@@ -3512,34 +3527,34 @@
         <v>293</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -3554,7 +3569,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="Q1:Q289"/>
+  <dimension ref="Q1:Q294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5005,6 +5020,31 @@
         <v>582</v>
       </c>
     </row>
+    <row r="290" spans="17:17">
+      <c r="Q290" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="291" spans="17:17">
+      <c r="Q291" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="292" spans="17:17">
+      <c r="Q292" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="293" spans="17:17">
+      <c r="Q293" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="294" spans="17:17">
+      <c r="Q294" t="s">
+        <v>587</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
